--- a/LM Sheet (by Juan Alduey).xlsx
+++ b/LM Sheet (by Juan Alduey).xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1" showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ceciliametheny/Desktop/Cecilia Numbers with Macros/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ceciliametheny/repos/ceciliametheny/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{31B30BF6-57B1-DD4C-80B7-C528F97772DD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{129DFE6E-BA40-774C-8365-35DEAAFBFBB0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16340" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Income" sheetId="1" r:id="rId1"/>
@@ -599,8 +599,8 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Income"/>
+      <sheetName val="Expenses"/>
       <sheetName val="Categories and Stats"/>
-      <sheetName val="Expenses"/>
       <sheetName val="DebitCredit Card Bank Acct Data"/>
       <sheetName val="Petty Cash Envelope"/>
       <sheetName val="TimeLog"/>
@@ -610,7 +610,8 @@
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
         <row r="2">
           <cell r="G2" t="str">
             <v>Rent</v>
@@ -887,7 +888,6 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
@@ -1219,9 +1219,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1322,9 +1322,9 @@
   <sheetPr codeName="Sheet1" filterMode="1"/>
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A59" sqref="A59"/>
+      <selection pane="bottomLeft" activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2168,10 +2168,10 @@
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43:B46 B55 B1:B41 B60:B1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43:B46 B55 B1:B41 B61:B1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>expense</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B47:B54 B42 B56:B59" xr:uid="{05177A31-2436-494B-9BEE-6D517E3064DB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B47:B54 B42 B56:B60" xr:uid="{05177A31-2436-494B-9BEE-6D517E3064DB}">
       <formula1>expenses</formula1>
     </dataValidation>
   </dataValidations>

--- a/LM Sheet (by Juan Alduey).xlsx
+++ b/LM Sheet (by Juan Alduey).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
   <workbookPr date1904="1" showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ceciliametheny/repos/ceciliametheny/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{129DFE6E-BA40-774C-8365-35DEAAFBFBB0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{28639C57-1C9D-7C4F-AB17-AAC08A3A9A2A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16340" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Expense!$A$1:$D$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Expense!$A$1:$D$59</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Income!$A$1:$D$1</definedName>
     <definedName name="expense">Categories!$F$2:$F$15</definedName>
     <definedName name="expenses">'[1]Categories and Stats'!$G$2:$G$56</definedName>
@@ -604,6 +604,7 @@
       <sheetName val="DebitCredit Card Bank Acct Data"/>
       <sheetName val="Petty Cash Envelope"/>
       <sheetName val="TimeLog"/>
+      <sheetName val="CM Sheet (by Juan Alduey)"/>
     </sheetNames>
     <definedNames>
       <definedName name="cmExp"/>
@@ -889,8 +890,9 @@
         </row>
       </sheetData>
       <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1221,7 +1223,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1319,12 +1321,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Sheet1" filterMode="1"/>
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A60" sqref="A60"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1349,7 +1351,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>41646</v>
       </c>
@@ -1360,7 +1362,7 @@
         <v>11.49</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>41647</v>
       </c>
@@ -1371,7 +1373,7 @@
         <v>8.2899999999999991</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>41647</v>
       </c>
@@ -1385,7 +1387,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>41654</v>
       </c>
@@ -1399,7 +1401,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>41657</v>
       </c>
@@ -1410,7 +1412,7 @@
         <v>2790</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>41658</v>
       </c>
@@ -1424,7 +1426,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>41660</v>
       </c>
@@ -1438,7 +1440,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>41663</v>
       </c>
@@ -1452,7 +1454,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>41664</v>
       </c>
@@ -1466,7 +1468,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>41665</v>
       </c>
@@ -1480,7 +1482,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>41667</v>
       </c>
@@ -1491,7 +1493,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>41670</v>
       </c>
@@ -1505,91 +1507,91 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
-        <v>41677</v>
+        <v>41675</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C14" s="7">
-        <v>19.899999999999999</v>
+        <v>1000</v>
       </c>
       <c r="D14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>41677</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C15" s="7">
-        <v>93.51</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
-        <v>41679</v>
+        <v>41677</v>
       </c>
       <c r="B16" t="s">
         <v>60</v>
       </c>
       <c r="C16" s="7">
-        <v>18.5</v>
+        <v>93.51</v>
       </c>
       <c r="D16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>41679</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C17" s="7">
-        <v>19.23</v>
+        <v>18.5</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>41679</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C18" s="7">
-        <v>181.82</v>
+        <v>19.23</v>
       </c>
       <c r="D18" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
-        <v>41680</v>
+        <v>41679</v>
       </c>
       <c r="B19" t="s">
         <v>60</v>
       </c>
       <c r="C19" s="7">
-        <v>17.29</v>
+        <v>181.82</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>41680</v>
       </c>
@@ -1597,69 +1599,69 @@
         <v>60</v>
       </c>
       <c r="C20" s="7">
-        <v>19.059999999999999</v>
+        <v>17.29</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>41680</v>
       </c>
       <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="7">
+        <v>19.059999999999999</v>
+      </c>
+      <c r="D21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>41680</v>
+      </c>
+      <c r="B22" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C22" s="7">
         <v>77.52</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
-        <v>41681</v>
-      </c>
-      <c r="B22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="7">
-        <v>23</v>
-      </c>
-      <c r="D22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>41681</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="C23" s="7">
-        <v>48.38</v>
+        <v>23</v>
       </c>
       <c r="D23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>41681</v>
       </c>
-      <c r="B24" s="12" t="s">
-        <v>57</v>
+      <c r="B24" t="s">
+        <v>60</v>
       </c>
       <c r="C24" s="7">
-        <v>28.38</v>
+        <v>48.38</v>
       </c>
       <c r="D24" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>41681</v>
       </c>
@@ -1670,80 +1672,80 @@
         <v>28.38</v>
       </c>
       <c r="D25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>41681</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="7">
+        <v>28.38</v>
+      </c>
+      <c r="D26" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
         <v>41682</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C27" s="7">
         <v>61.7</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D27" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
         <v>41683</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C28" s="7">
         <v>96.57</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D28" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
-        <v>41691</v>
-      </c>
-      <c r="B28" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="7">
-        <v>400</v>
-      </c>
-      <c r="D28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>41691</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="C29" s="7">
-        <v>2790</v>
+        <v>400</v>
       </c>
       <c r="D29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>41691</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="C30" s="7">
         <v>2790</v>
       </c>
       <c r="D30" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
         <v>41691</v>
       </c>
@@ -1754,88 +1756,88 @@
         <v>2790</v>
       </c>
       <c r="D31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="3">
+        <v>41691</v>
+      </c>
+      <c r="B32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2790</v>
+      </c>
+      <c r="D32" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="3">
         <v>41692</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C33" s="7">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" s="3">
         <v>41695</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>59</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C34" s="7">
         <v>3000</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="3">
         <v>41698</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C35" s="7">
         <v>1000</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D35" s="12" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="3">
-        <v>41700</v>
-      </c>
-      <c r="B35" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" s="7">
-        <v>77.31</v>
-      </c>
-      <c r="D35" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="3">
         <v>41700</v>
       </c>
       <c r="B36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="7">
+        <v>77.31</v>
+      </c>
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="3">
+        <v>41700</v>
+      </c>
+      <c r="B37" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C37" s="7">
         <v>79.19</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D37" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="3">
-        <v>41701</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C37" s="7">
-        <v>12.36</v>
-      </c>
-      <c r="D37" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="3">
         <v>41701</v>
       </c>
@@ -1843,27 +1845,27 @@
         <v>57</v>
       </c>
       <c r="C38" s="7">
+        <v>12.36</v>
+      </c>
+      <c r="D38" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" s="3">
+        <v>41701</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="7">
         <v>12.96</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D39" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="3">
-        <v>41702</v>
-      </c>
-      <c r="B39" t="s">
-        <v>60</v>
-      </c>
-      <c r="C39" s="7">
-        <v>6.99</v>
-      </c>
-      <c r="D39" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="3">
         <v>41702</v>
       </c>
@@ -1874,252 +1876,252 @@
         <v>6.99</v>
       </c>
       <c r="D40" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="3">
         <v>41702</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="C41" s="7">
-        <v>102.5</v>
+        <v>6.99</v>
       </c>
       <c r="D41" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="3">
+        <v>41702</v>
+      </c>
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="7">
+        <v>102.5</v>
+      </c>
+      <c r="D42" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43" s="3">
         <v>41703</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>57</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C43" s="7">
         <v>1000</v>
       </c>
-      <c r="D42" s="12" t="s">
+      <c r="D43" s="12" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44" s="3">
         <v>41706</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>11</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C44" s="7">
         <v>2252</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D44" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45" s="3">
+        <v>41706</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" s="7">
+        <v>2252</v>
+      </c>
+      <c r="D45" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46" s="3">
         <v>41707</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B46" t="s">
         <v>57</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C46" s="7">
         <v>28.29</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D46" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47" s="3">
         <v>41708</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B47" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C47" s="7">
         <v>15.98</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D47" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A48" s="3">
         <v>41710</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B48" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C48" s="7">
         <v>250</v>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="D48" s="12" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A49" s="3">
         <v>41710</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B49" t="s">
         <v>40</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C49" s="7">
         <v>650</v>
       </c>
-      <c r="D47" s="12" t="s">
+      <c r="D49" s="12" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A50" s="3">
         <v>41714</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C48" s="7">
-        <v>133.32</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="3">
-        <v>41719</v>
-      </c>
-      <c r="B49" t="s">
-        <v>32</v>
-      </c>
-      <c r="C49" s="7">
-        <v>400</v>
-      </c>
-      <c r="D49" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="3">
-        <v>41719</v>
       </c>
       <c r="B50" s="12" t="s">
         <v>57</v>
       </c>
       <c r="C50" s="7">
-        <v>39.29</v>
-      </c>
-      <c r="D50" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="13">
-        <v>41721</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>57</v>
+        <v>133.32</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A51" s="3">
+        <v>41719</v>
+      </c>
+      <c r="B51" t="s">
+        <v>32</v>
       </c>
       <c r="C51" s="7">
-        <v>129.56</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>400</v>
+      </c>
+      <c r="D51" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="3">
-        <v>41729</v>
+        <v>41719</v>
       </c>
       <c r="B52" s="12" t="s">
         <v>57</v>
       </c>
       <c r="C52" s="7">
-        <v>1000</v>
+        <v>39.29</v>
       </c>
       <c r="D52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E52" s="12" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="3">
-        <v>41730</v>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A53" s="13">
+        <v>41721</v>
       </c>
       <c r="B53" s="12" t="s">
         <v>57</v>
       </c>
       <c r="C53" s="7">
-        <v>153.13</v>
-      </c>
-      <c r="D53" t="s">
-        <v>83</v>
+        <v>129.56</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>75</v>
       </c>
       <c r="E53" s="12"/>
       <c r="F53" s="12" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="3">
-        <v>41706</v>
-      </c>
-      <c r="B54" s="12" t="s">
+        <v>41726</v>
+      </c>
+      <c r="B54" t="s">
         <v>57</v>
       </c>
       <c r="C54" s="7">
-        <v>2252</v>
+        <v>346.22</v>
       </c>
       <c r="D54" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="3">
-        <v>41730</v>
+        <v>41729</v>
       </c>
       <c r="B55" s="12" t="s">
         <v>57</v>
       </c>
       <c r="C55" s="7">
-        <v>139.5</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>1000</v>
+      </c>
+      <c r="D55" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="3">
-        <v>41731</v>
+        <v>41730</v>
       </c>
       <c r="B56" s="12" t="s">
         <v>57</v>
       </c>
       <c r="C56" s="7">
-        <v>1000</v>
+        <v>153.13</v>
       </c>
       <c r="D56" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="3">
-        <v>41675</v>
-      </c>
-      <c r="B57" t="s">
+        <v>41730</v>
+      </c>
+      <c r="B57" s="12" t="s">
         <v>57</v>
       </c>
       <c r="C57" s="7">
-        <v>1000</v>
-      </c>
-      <c r="D57" t="s">
-        <v>81</v>
+        <v>139.5</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
@@ -2132,46 +2134,36 @@
       <c r="C58" s="7">
         <v>1000</v>
       </c>
-      <c r="D58" s="12" t="s">
-        <v>89</v>
+      <c r="D58" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="3">
-        <v>41726</v>
-      </c>
-      <c r="B59" t="s">
+        <v>41731</v>
+      </c>
+      <c r="B59" s="12" t="s">
         <v>57</v>
       </c>
       <c r="C59" s="7">
-        <v>346.22</v>
-      </c>
-      <c r="D59" t="s">
-        <v>90</v>
+        <v>1000</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D57" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Cecilia Metheny"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <filters>
-        <filter val="for Juan Alduey"/>
-      </filters>
-    </filterColumn>
-    <sortState ref="A42:D58">
-      <sortCondition ref="D1:D58"/>
+  <autoFilter ref="A1:D59" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <sortState ref="A2:D59">
+      <sortCondition ref="A1:A59"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43:B46 B55 B1:B41 B61:B1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43:B46 B55 B1:B41 B60:B1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>expense</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B47:B54 B42 B56:B60" xr:uid="{05177A31-2436-494B-9BEE-6D517E3064DB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B47:B54 B42 B56:B59" xr:uid="{05177A31-2436-494B-9BEE-6D517E3064DB}">
       <formula1>expenses</formula1>
     </dataValidation>
   </dataValidations>
@@ -2414,7 +2406,7 @@
       </c>
       <c r="G15" s="8">
         <f>SUMIFS(ExpensesAmtLog, ExpensesCatLog, F15, ExpensesDateLog, "&gt;="&amp;TEXT($J$2, "mm-dd-yyyy"), ExpensesDateLog, "&lt;="&amp;TEXT($K$2, "mm-dd-yyyy"))</f>
-        <v>10690.249999999998</v>
+        <v>10690.25</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.15">

--- a/LM Sheet (by Juan Alduey).xlsx
+++ b/LM Sheet (by Juan Alduey).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ceciliametheny/repos/ceciliametheny/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28639C57-1C9D-7C4F-AB17-AAC08A3A9A2A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{EB630F6F-9073-C24B-8750-19A1B697B34C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16340" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Income" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,11 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Expense!$A$1:$D$59</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Income!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Income!$A$1:$D$5</definedName>
     <definedName name="expense">Categories!$F$2:$F$15</definedName>
     <definedName name="expenses">'[1]Categories and Stats'!$G$2:$G$56</definedName>
     <definedName name="ExpensesAmtLog">Expense!$C:$C</definedName>
@@ -520,7 +521,90 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>101600</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>495300</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2049" name="Button 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2049"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8556D145-660E-7E4F-8CCD-6A9F00A05EF9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Verdana" charset="0"/>
+                  <a:ea typeface="Verdana" charset="0"/>
+                  <a:cs typeface="Verdana" charset="0"/>
+                </a:rPr>
+                <a:t>Clear Filters</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -591,6 +675,76 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>279400</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>165100</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>482600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1026" name="Button 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1026"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB3B128A-DEF4-7445-998C-A537DA7C5176}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Verdana" charset="0"/>
+                  <a:ea typeface="Verdana" charset="0"/>
+                  <a:cs typeface="Verdana" charset="0"/>
+                </a:rPr>
+                <a:t>Clear Filters</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -893,6 +1047,28 @@
       <sheetData sheetId="4" refreshError="1"/>
       <sheetData sheetId="5" refreshError="1"/>
       <sheetData sheetId="6" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Income"/>
+      <sheetName val="Expenses"/>
+      <sheetName val="Categories and Stats"/>
+      <sheetName val="DebitCredit Card Bank Acct Data"/>
+    </sheetNames>
+    <definedNames>
+      <definedName name="ClearFilters.ClearFilters"/>
+    </definedNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1217,13 +1393,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1232,7 +1408,7 @@
     <col min="3" max="3" width="10.6640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>42</v>
       </c>
@@ -1303,7 +1479,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D5" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -1311,6 +1487,36 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2049" r:id="rId3" name="Button 1">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[2]!ClearFilters.ClearFilters">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>101600</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>152400</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>495300</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1324,9 +1530,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A59" sqref="A59"/>
+      <selection pane="bottomLeft" activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2153,11 +2359,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D59" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <sortState ref="A2:D59">
-      <sortCondition ref="A1:A59"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:D59" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43:B46 B55 B1:B41 B60:B1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -2195,6 +2397,28 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1026" r:id="rId4" name="Button 2">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[2]!ClearFilters.ClearFilters">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>279400</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>114300</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>165100</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>482600</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>

--- a/LM Sheet (by Juan Alduey).xlsx
+++ b/LM Sheet (by Juan Alduey).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr date1904="1" showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ceciliametheny/repos/ceciliametheny/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{EB630F6F-9073-C24B-8750-19A1B697B34C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0CE9718D-24D4-2B44-A249-DFD2F7BC30DB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="540" windowWidth="28800" windowHeight="16340" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Income" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
-    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Expense!$A$1:$D$59</definedName>
@@ -397,7 +396,7 @@
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -422,6 +421,12 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -554,7 +559,7 @@
                   <a14:compatExt spid="_x0000_s2049"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8556D145-660E-7E4F-8CCD-6A9F00A05EF9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -587,9 +592,9 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Verdana" charset="0"/>
-                  <a:ea typeface="Verdana" charset="0"/>
-                  <a:cs typeface="Verdana" charset="0"/>
+                  <a:latin typeface="Verdana" pitchFamily="2" charset="0"/>
+                  <a:ea typeface="Verdana" pitchFamily="2" charset="0"/>
+                  <a:cs typeface="Verdana" pitchFamily="2" charset="0"/>
                 </a:rPr>
                 <a:t>Clear Filters</a:t>
               </a:r>
@@ -698,7 +703,7 @@
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB3B128A-DEF4-7445-998C-A537DA7C5176}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -731,9 +736,9 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Verdana" charset="0"/>
-                  <a:ea typeface="Verdana" charset="0"/>
-                  <a:cs typeface="Verdana" charset="0"/>
+                  <a:latin typeface="Verdana" pitchFamily="2" charset="0"/>
+                  <a:ea typeface="Verdana" pitchFamily="2" charset="0"/>
+                  <a:cs typeface="Verdana" pitchFamily="2" charset="0"/>
                 </a:rPr>
                 <a:t>Clear Filters</a:t>
               </a:r>
@@ -756,9 +761,7 @@
       <sheetName val="Expenses"/>
       <sheetName val="Categories and Stats"/>
       <sheetName val="DebitCredit Card Bank Acct Data"/>
-      <sheetName val="Petty Cash Envelope"/>
-      <sheetName val="TimeLog"/>
-      <sheetName val="CM Sheet (by Juan Alduey)"/>
+      <sheetName val="3 Month Average"/>
     </sheetNames>
     <definedNames>
       <definedName name="cmExp"/>
@@ -1044,31 +1047,7 @@
         </row>
       </sheetData>
       <sheetData sheetId="3"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Income"/>
-      <sheetName val="Expenses"/>
-      <sheetName val="Categories and Stats"/>
-      <sheetName val="DebitCredit Card Bank Acct Data"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="ClearFilters.ClearFilters"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1397,9 +1376,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1495,7 +1474,7 @@
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
             <control shapeId="2049" r:id="rId3" name="Button 1">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[2]!ClearFilters.ClearFilters">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
@@ -1528,11 +1507,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F66" sqref="F66"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2358,14 +2337,23 @@
         <v>89</v>
       </c>
     </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B60" s="12"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B61" s="12"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B62" s="12"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D59" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43:B46 B55 B1:B41 B60:B1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43:B46 B55 B1:B41 B63:B1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>expense</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B47:B54 B42 B56:B59" xr:uid="{05177A31-2436-494B-9BEE-6D517E3064DB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B47:B54 B42 B56:B62" xr:uid="{05177A31-2436-494B-9BEE-6D517E3064DB}">
       <formula1>expenses</formula1>
     </dataValidation>
   </dataValidations>
@@ -2400,7 +2388,7 @@
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
             <control shapeId="1026" r:id="rId4" name="Button 2">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[2]!ClearFilters.ClearFilters">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>

--- a/LM Sheet (by Juan Alduey).xlsx
+++ b/LM Sheet (by Juan Alduey).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ceciliametheny/repos/ceciliametheny/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0CE9718D-24D4-2B44-A249-DFD2F7BC30DB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CEE04A7D-2A24-2548-BEC3-E0ACD42797AD}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="540" windowWidth="28800" windowHeight="16340" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="94">
   <si>
     <t>for Jewlery repair</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -386,6 +386,12 @@
   </si>
   <si>
     <t>income/G&amp;E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for  - </t>
+  </si>
+  <si>
+    <t>for Food Out - 53B - 4896</t>
   </si>
 </sst>
 </file>
@@ -764,6 +770,7 @@
       <sheetName val="3 Month Average"/>
     </sheetNames>
     <definedNames>
+      <definedName name="ClearFilters.ClearFilters"/>
       <definedName name="cmExp"/>
     </definedNames>
     <sheetDataSet>
@@ -1378,7 +1385,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q17" sqref="Q17"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1474,7 +1481,7 @@
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
             <control shapeId="2049" r:id="rId3" name="Button 1">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[1]!ClearFilters.ClearFilters">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
@@ -1510,8 +1517,8 @@
   <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D60" sqref="D60"/>
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2338,23 +2345,59 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B60" s="12"/>
+      <c r="A60" s="3">
+        <v>41754</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C60" s="7">
+        <v>35</v>
+      </c>
+      <c r="D60" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B61" s="12"/>
+      <c r="A61" s="3">
+        <v>41754</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C61" s="7">
+        <v>35</v>
+      </c>
+      <c r="D61" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B62" s="12"/>
+      <c r="A62" s="3">
+        <v>41754</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C62" s="7">
+        <v>35</v>
+      </c>
+      <c r="D62" t="s">
+        <v>82</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D59" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43:B46 B55 B1:B41 B63:B1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>expense</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B47:B54 B42 B56:B62" xr:uid="{05177A31-2436-494B-9BEE-6D517E3064DB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B47:B54 B42 B56:B59 B62" xr:uid="{05177A31-2436-494B-9BEE-6D517E3064DB}">
       <formula1>expenses</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B60:B61" xr:uid="{9B6D1881-8074-BF46-88DE-694A6D567B19}">
+      <formula1>income</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2388,7 +2431,7 @@
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
             <control shapeId="1026" r:id="rId4" name="Button 2">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[1]!ClearFilters.ClearFilters">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>

--- a/LM Sheet (by Juan Alduey).xlsx
+++ b/LM Sheet (by Juan Alduey).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ceciliametheny/repos/ceciliametheny/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CEE04A7D-2A24-2548-BEC3-E0ACD42797AD}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EA8E0DDE-9395-C241-B67C-8C3AD7F7BAED}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="540" windowWidth="28800" windowHeight="16340" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Income" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="97">
   <si>
     <t>for Jewlery repair</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -392,6 +392,15 @@
   </si>
   <si>
     <t>for Food Out - 53B - 4896</t>
+  </si>
+  <si>
+    <t>for Grocery Store - 53B - 4896</t>
+  </si>
+  <si>
+    <t>for Business Travel - FVB - 1380</t>
+  </si>
+  <si>
+    <t>for Office Supplies - FVB - 1380</t>
   </si>
 </sst>
 </file>
@@ -402,7 +411,7 @@
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -421,12 +430,6 @@
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -536,10 +539,6 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -617,75 +616,6 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>88900</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>1333500</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>317500</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1025" name="Button 1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1025"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                  <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-                </a:rPr>
-                <a:t>Cecilia Metheny</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
@@ -1514,11 +1444,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A62" sqref="A62"/>
+      <selection pane="bottomLeft" activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2384,6 +2314,188 @@
       </c>
       <c r="D62" t="s">
         <v>82</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A63" s="3">
+        <v>41757</v>
+      </c>
+      <c r="B63" t="s">
+        <v>57</v>
+      </c>
+      <c r="C63" s="7">
+        <v>90</v>
+      </c>
+      <c r="D63" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A64" s="3">
+        <v>41756</v>
+      </c>
+      <c r="B64" t="s">
+        <v>57</v>
+      </c>
+      <c r="C64" s="7">
+        <v>100</v>
+      </c>
+      <c r="D64" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A65" s="3">
+        <v>41758</v>
+      </c>
+      <c r="B65" t="s">
+        <v>57</v>
+      </c>
+      <c r="C65" s="7">
+        <v>300</v>
+      </c>
+      <c r="D65" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A66" s="3">
+        <v>41758</v>
+      </c>
+      <c r="B66" t="s">
+        <v>57</v>
+      </c>
+      <c r="C66" s="7">
+        <v>600</v>
+      </c>
+      <c r="D66" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A67" s="3">
+        <v>41758</v>
+      </c>
+      <c r="B67" t="s">
+        <v>57</v>
+      </c>
+      <c r="C67" s="7">
+        <v>999</v>
+      </c>
+      <c r="D67" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A68" s="3">
+        <v>41758</v>
+      </c>
+      <c r="B68" t="s">
+        <v>57</v>
+      </c>
+      <c r="C68" s="7">
+        <v>2454</v>
+      </c>
+      <c r="D68" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A69" s="3">
+        <v>41758</v>
+      </c>
+      <c r="B69" t="s">
+        <v>57</v>
+      </c>
+      <c r="C69" s="7">
+        <v>333</v>
+      </c>
+      <c r="D69" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A70" s="3">
+        <v>41757</v>
+      </c>
+      <c r="B70" t="s">
+        <v>57</v>
+      </c>
+      <c r="C70" s="7">
+        <v>1200</v>
+      </c>
+      <c r="D70" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A71" s="3">
+        <v>41757</v>
+      </c>
+      <c r="B71" t="s">
+        <v>57</v>
+      </c>
+      <c r="C71" s="7">
+        <v>1200</v>
+      </c>
+      <c r="D71" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A72" s="3">
+        <v>41757</v>
+      </c>
+      <c r="B72" t="s">
+        <v>57</v>
+      </c>
+      <c r="C72" s="7">
+        <v>1200</v>
+      </c>
+      <c r="D72" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A73" s="3">
+        <v>41757</v>
+      </c>
+      <c r="B73" t="s">
+        <v>57</v>
+      </c>
+      <c r="C73" s="7">
+        <v>1200</v>
+      </c>
+      <c r="D73" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A74" s="3">
+        <v>41757</v>
+      </c>
+      <c r="B74" t="s">
+        <v>57</v>
+      </c>
+      <c r="C74" s="7">
+        <v>1200</v>
+      </c>
+      <c r="D74" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A75" s="3">
+        <v>41757</v>
+      </c>
+      <c r="B75" t="s">
+        <v>57</v>
+      </c>
+      <c r="C75" s="7">
+        <v>1200</v>
+      </c>
+      <c r="D75" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2408,29 +2520,7 @@
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1025" r:id="rId3" name="Button 1">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[1]!cmExp">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>1</xdr:col>
-                    <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>0</xdr:row>
-                    <xdr:rowOff>88900</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>1</xdr:col>
-                    <xdr:colOff>1333500</xdr:colOff>
-                    <xdr:row>0</xdr:row>
-                    <xdr:rowOff>317500</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1026" r:id="rId4" name="Button 2">
+            <control shapeId="1026" r:id="rId3" name="Button 2">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[1]!ClearFilters.ClearFilters">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>

--- a/LM Sheet (by Juan Alduey).xlsx
+++ b/LM Sheet (by Juan Alduey).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ceciliametheny/repos/ceciliametheny/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EA8E0DDE-9395-C241-B67C-8C3AD7F7BAED}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8A21E208-2B21-C54A-9E78-191F675A35DF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="28800" windowHeight="16260" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Income" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Expense!$A$1:$D$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Expense!$A$1:$D$86</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Income!$A$1:$D$5</definedName>
     <definedName name="expense">Categories!$F$2:$F$15</definedName>
     <definedName name="expenses">'[1]Categories and Stats'!$G$2:$G$56</definedName>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="108">
   <si>
     <t>for Jewlery repair</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -401,6 +401,42 @@
   </si>
   <si>
     <t>for Office Supplies - FVB - 1380</t>
+  </si>
+  <si>
+    <t>for food Out - 53B - 4896</t>
+  </si>
+  <si>
+    <t>for Public Transit - 53B - 4896</t>
+  </si>
+  <si>
+    <t>for Public Transit - FVB - 1380</t>
+  </si>
+  <si>
+    <t>Chase Amazon v5475</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>First Premier MC 3561</t>
+  </si>
+  <si>
+    <t>JetBlue MC 3965</t>
+  </si>
+  <si>
+    <t>First Premier MC 3141</t>
+  </si>
+  <si>
+    <t>Credit One V7030</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Credit One MC4850</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Consulting</t>
+  </si>
+  <si>
+    <t>for Consultant - 53B - 4896</t>
   </si>
 </sst>
 </file>
@@ -411,7 +447,7 @@
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -438,6 +474,13 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -459,7 +502,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -493,6 +536,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -512,8 +577,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -701,7 +766,6 @@
     </sheetNames>
     <definedNames>
       <definedName name="ClearFilters.ClearFilters"/>
-      <definedName name="cmExp"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -1444,11 +1508,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:F94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B76" sqref="B76"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2498,8 +2562,274 @@
         <v>93</v>
       </c>
     </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A76" s="3">
+        <v>41761</v>
+      </c>
+      <c r="B76" t="s">
+        <v>57</v>
+      </c>
+      <c r="C76" s="7">
+        <v>100</v>
+      </c>
+      <c r="D76" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A77" s="3">
+        <v>41760</v>
+      </c>
+      <c r="B77" t="s">
+        <v>57</v>
+      </c>
+      <c r="C77" s="7">
+        <v>300</v>
+      </c>
+      <c r="D77" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A78" s="3">
+        <v>41759</v>
+      </c>
+      <c r="B78" t="s">
+        <v>57</v>
+      </c>
+      <c r="C78" s="7">
+        <v>45</v>
+      </c>
+      <c r="D78" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A79" s="3">
+        <v>41759</v>
+      </c>
+      <c r="B79" t="s">
+        <v>57</v>
+      </c>
+      <c r="C79" s="7">
+        <v>90</v>
+      </c>
+      <c r="D79" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A80" s="3">
+        <v>41760</v>
+      </c>
+      <c r="B80" t="s">
+        <v>57</v>
+      </c>
+      <c r="C80" s="7">
+        <v>95</v>
+      </c>
+      <c r="D80" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A81" s="3">
+        <v>41760</v>
+      </c>
+      <c r="B81" t="s">
+        <v>57</v>
+      </c>
+      <c r="C81" s="7">
+        <v>95</v>
+      </c>
+      <c r="D81" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A82" s="3">
+        <v>41761</v>
+      </c>
+      <c r="B82" t="s">
+        <v>57</v>
+      </c>
+      <c r="C82" s="7">
+        <v>200</v>
+      </c>
+      <c r="D82" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A83" s="3">
+        <v>41760</v>
+      </c>
+      <c r="B83" t="s">
+        <v>57</v>
+      </c>
+      <c r="C83" s="7">
+        <v>300</v>
+      </c>
+      <c r="D83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A84" s="3">
+        <v>41761</v>
+      </c>
+      <c r="B84" t="s">
+        <v>57</v>
+      </c>
+      <c r="C84" s="7">
+        <v>120</v>
+      </c>
+      <c r="D84" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A85" s="3">
+        <v>41759</v>
+      </c>
+      <c r="B85" t="s">
+        <v>57</v>
+      </c>
+      <c r="C85" s="7">
+        <v>35</v>
+      </c>
+      <c r="D85" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A86" s="3">
+        <v>41759</v>
+      </c>
+      <c r="B86" t="s">
+        <v>57</v>
+      </c>
+      <c r="C86" s="7">
+        <v>35</v>
+      </c>
+      <c r="D86" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A87" s="3">
+        <v>41656</v>
+      </c>
+      <c r="B87" t="s">
+        <v>57</v>
+      </c>
+      <c r="C87" s="7">
+        <v>72.8</v>
+      </c>
+      <c r="D87" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A88" s="3">
+        <v>41656</v>
+      </c>
+      <c r="B88" t="s">
+        <v>57</v>
+      </c>
+      <c r="C88" s="7">
+        <v>72.8</v>
+      </c>
+      <c r="D88" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A89" s="3">
+        <v>41656</v>
+      </c>
+      <c r="B89" t="s">
+        <v>57</v>
+      </c>
+      <c r="C89" s="7">
+        <v>72.8</v>
+      </c>
+      <c r="D89" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A90" s="3">
+        <v>41656</v>
+      </c>
+      <c r="B90" t="s">
+        <v>57</v>
+      </c>
+      <c r="C90" s="7">
+        <v>72.8</v>
+      </c>
+      <c r="D90" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A91" s="3">
+        <v>41656</v>
+      </c>
+      <c r="B91" t="s">
+        <v>57</v>
+      </c>
+      <c r="C91" s="7">
+        <v>72.8</v>
+      </c>
+      <c r="D91" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A92" s="3">
+        <v>41656</v>
+      </c>
+      <c r="B92" t="s">
+        <v>57</v>
+      </c>
+      <c r="C92" s="7">
+        <v>72.8</v>
+      </c>
+      <c r="D92" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A93" s="3">
+        <v>41656</v>
+      </c>
+      <c r="B93" t="s">
+        <v>57</v>
+      </c>
+      <c r="C93" s="7">
+        <v>72.8</v>
+      </c>
+      <c r="D93" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A94" s="3">
+        <v>41656</v>
+      </c>
+      <c r="B94" t="s">
+        <v>57</v>
+      </c>
+      <c r="C94" s="7">
+        <v>72.8</v>
+      </c>
+      <c r="D94" t="s">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D59" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:D86" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43:B46 B55 B1:B41 B63:B1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -2554,16 +2884,16 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B1:K20"/>
+  <dimension ref="B1:K22"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34" customWidth="1"/>
     <col min="7" max="7" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2723,7 +3053,7 @@
         <v>30</v>
       </c>
       <c r="G12" s="8">
-        <f>SUMIFS(ExpensesAmtLog, ExpensesCatLog, F12, ExpensesDateLog, "&gt;="&amp;TEXT($J$2, "mm-dd-yyyy"), ExpensesDateLog, "&lt;="&amp;TEXT($K$2, "mm-dd-yyyy"))</f>
+        <f t="shared" ref="G12:G21" si="2">SUMIFS(ExpensesAmtLog, ExpensesCatLog, F12, ExpensesDateLog, "&gt;="&amp;TEXT($J$2, "mm-dd-yyyy"), ExpensesDateLog, "&lt;="&amp;TEXT($K$2, "mm-dd-yyyy"))</f>
         <v>250</v>
       </c>
     </row>
@@ -2732,7 +3062,7 @@
         <v>41</v>
       </c>
       <c r="G13" s="8">
-        <f>SUMIFS(ExpensesAmtLog, ExpensesCatLog, F13, ExpensesDateLog, "&gt;="&amp;TEXT($J$2, "mm-dd-yyyy"), ExpensesDateLog, "&lt;="&amp;TEXT($K$2, "mm-dd-yyyy"))</f>
+        <f t="shared" si="2"/>
         <v>650</v>
       </c>
     </row>
@@ -2741,7 +3071,7 @@
         <v>56</v>
       </c>
       <c r="G14" s="8">
-        <f>SUMIFS(ExpensesAmtLog, ExpensesCatLog, F14, ExpensesDateLog, "&gt;="&amp;TEXT($J$2, "mm-dd-yyyy"), ExpensesDateLog, "&lt;="&amp;TEXT($K$2, "mm-dd-yyyy"))</f>
+        <f t="shared" si="2"/>
         <v>3000</v>
       </c>
     </row>
@@ -2750,24 +3080,68 @@
         <v>58</v>
       </c>
       <c r="G15" s="8">
-        <f>SUMIFS(ExpensesAmtLog, ExpensesCatLog, F15, ExpensesDateLog, "&gt;="&amp;TEXT($J$2, "mm-dd-yyyy"), ExpensesDateLog, "&lt;="&amp;TEXT($K$2, "mm-dd-yyyy"))</f>
-        <v>10690.25</v>
+        <f t="shared" si="2"/>
+        <v>11272.649999999994</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="F16" s="14"/>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F17" s="15"/>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F18" s="15"/>
-    </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F19" s="15"/>
-    </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F20" s="15"/>
+      <c r="F16" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F17" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F18" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F19" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F20" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="G20" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F21" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F22" s="15" t="s">
+        <v>106</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/LM Sheet (by Juan Alduey).xlsx
+++ b/LM Sheet (by Juan Alduey).xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1" showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ceciliametheny/repos/ceciliametheny/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ceciliametheny/Desktop/Cecilia Numbers with Macros/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8A21E208-2B21-C54A-9E78-191F675A35DF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{40905560-754C-4C43-A350-2A53ABAFCAC4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="620" windowWidth="28800" windowHeight="16260" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8500" yWindow="1000" windowWidth="27580" windowHeight="14000" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Income" sheetId="1" r:id="rId1"/>
@@ -21,10 +21,11 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Expense!$A$1:$D$86</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Expense!$A$1:$D$87</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Income!$A$1:$D$5</definedName>
-    <definedName name="expense">Categories!$F$2:$F$15</definedName>
-    <definedName name="expenses">'[1]Categories and Stats'!$G$2:$G$56</definedName>
+    <definedName name="expense">Categories!$F$2:$F$21</definedName>
+    <definedName name="expenseLogNotes">Expense!$D:$D</definedName>
+    <definedName name="expenses">'[1]Categories and Stats'!$G$2:$G$51</definedName>
     <definedName name="ExpensesAmtLog">Expense!$C:$C</definedName>
     <definedName name="ExpensesCatLog">Expense!$B:$B</definedName>
     <definedName name="ExpensesDateLog">Expense!$A:$A</definedName>
@@ -32,6 +33,7 @@
     <definedName name="IncomeAmtLog">Income!$C:$C</definedName>
     <definedName name="IncomeCatLog">Income!$B:$B</definedName>
     <definedName name="IncomeDateLog">Income!$A:$A</definedName>
+    <definedName name="Notes">Expense!$D:$D</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="122">
   <si>
     <t>for Jewlery repair</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -376,9 +378,6 @@
     <t>for Credit One MC4850 -53B - 4896</t>
   </si>
   <si>
-    <t>for Consultant - FVB - 1380</t>
-  </si>
-  <si>
     <t>for Consultant - FVB - 1380 - Juan Alduey</t>
   </si>
   <si>
@@ -388,28 +387,55 @@
     <t>income/G&amp;E</t>
   </si>
   <si>
-    <t xml:space="preserve">for  - </t>
-  </si>
-  <si>
-    <t>for Food Out - 53B - 4896</t>
-  </si>
-  <si>
-    <t>for Grocery Store - 53B - 4896</t>
-  </si>
-  <si>
-    <t>for Business Travel - FVB - 1380</t>
+    <t>for Consultant - FVB - 1380 - Accountant</t>
+  </si>
+  <si>
+    <t>OTC Medications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sparks Nursing Home </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accessories -FVB 1380 </t>
+  </si>
+  <si>
+    <t>for Rent - FVB - 1380</t>
+  </si>
+  <si>
+    <t>for Cablevision - 53B - 4896</t>
+  </si>
+  <si>
+    <t>for Chase Amazon v5475 - 53B - 4896</t>
+  </si>
+  <si>
+    <t>for Chase Amazon v5475 - FVB - 1380</t>
+  </si>
+  <si>
+    <t>for CHASE Amazon v5475 - FVB - 1380</t>
+  </si>
+  <si>
+    <t>Storage</t>
+  </si>
+  <si>
+    <t>FVB - Movers (Tax Deductable)</t>
+  </si>
+  <si>
+    <t>for Credit One MC4850 - 53B - 4896</t>
+  </si>
+  <si>
+    <t>FVB - United Airlines</t>
+  </si>
+  <si>
+    <t>53Bank-Credit One Card</t>
+  </si>
+  <si>
+    <t>/Closed</t>
   </si>
   <si>
     <t>for Office Supplies - FVB - 1380</t>
   </si>
   <si>
-    <t>for food Out - 53B - 4896</t>
-  </si>
-  <si>
-    <t>for Public Transit - 53B - 4896</t>
-  </si>
-  <si>
-    <t>for Public Transit - FVB - 1380</t>
+    <t>for Google Cloud Service - FVB - 1380</t>
   </si>
   <si>
     <t>Chase Amazon v5475</t>
@@ -433,19 +459,38 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>Chase Amazon v5475</t>
+  </si>
+  <si>
+    <t>Credit One MC4850</t>
+  </si>
+  <si>
+    <t>Credit One V7030</t>
+  </si>
+  <si>
+    <t>LM OWES CM</t>
+  </si>
+  <si>
+    <t>Active Debt</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
     <t>Consulting</t>
   </si>
   <si>
-    <t>for Consultant - 53B - 4896</t>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="m/d/yyyy;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -482,7 +527,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -501,8 +546,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -549,20 +600,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -577,8 +619,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -768,8 +815,8 @@
       <definedName name="ClearFilters.ClearFilters"/>
     </definedNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2">
         <row r="2">
           <cell r="G2" t="str">
@@ -853,202 +900,177 @@
         </row>
         <row r="18">
           <cell r="G18" t="str">
-            <v>First Premier MC 3561</v>
+            <v>Grocery Store</v>
           </cell>
         </row>
         <row r="19">
           <cell r="G19" t="str">
-            <v>JetBlue MC 3965</v>
+            <v>Food Out</v>
           </cell>
         </row>
         <row r="20">
           <cell r="G20" t="str">
-            <v>First Premier MC 3141</v>
+            <v>Wine</v>
           </cell>
         </row>
         <row r="21">
           <cell r="G21" t="str">
-            <v>Credit One V7030</v>
+            <v>Public Transit</v>
           </cell>
         </row>
         <row r="22">
           <cell r="G22" t="str">
-            <v>Credit One MC4850</v>
+            <v>Car Rental</v>
           </cell>
         </row>
         <row r="23">
           <cell r="G23" t="str">
-            <v>Grocery Store</v>
+            <v>Taxi</v>
           </cell>
         </row>
         <row r="24">
           <cell r="G24" t="str">
-            <v>Food Out</v>
+            <v>Travel</v>
           </cell>
         </row>
         <row r="25">
           <cell r="G25" t="str">
-            <v>Wine</v>
+            <v>Clothes</v>
           </cell>
         </row>
         <row r="26">
           <cell r="G26" t="str">
-            <v>Public Transit</v>
+            <v>Body Care</v>
           </cell>
         </row>
         <row r="27">
           <cell r="G27" t="str">
-            <v>Car Rental</v>
+            <v>Accessories</v>
           </cell>
         </row>
         <row r="28">
           <cell r="G28" t="str">
-            <v>Taxi</v>
+            <v>Entertainment Subscription</v>
           </cell>
         </row>
         <row r="29">
           <cell r="G29" t="str">
-            <v>Travel</v>
+            <v>Yoga/Gym</v>
           </cell>
         </row>
         <row r="30">
           <cell r="G30" t="str">
-            <v>Clothes</v>
+            <v>Fred Henry</v>
           </cell>
         </row>
         <row r="31">
           <cell r="G31" t="str">
-            <v>Body Care</v>
+            <v>Robert Rich</v>
           </cell>
         </row>
         <row r="32">
           <cell r="G32" t="str">
-            <v>Accessories</v>
+            <v>Office Supplies</v>
           </cell>
         </row>
         <row r="33">
           <cell r="G33" t="str">
-            <v>Entertainment Subscription</v>
+            <v>Cell Phone</v>
           </cell>
         </row>
         <row r="34">
           <cell r="G34" t="str">
-            <v>Yoga/Gym</v>
+            <v>Consultant</v>
           </cell>
         </row>
         <row r="35">
           <cell r="G35" t="str">
-            <v>Fred Henry</v>
+            <v>Google Cloud Service</v>
           </cell>
         </row>
         <row r="36">
           <cell r="G36" t="str">
-            <v>Robert Rich</v>
+            <v>Go Daddy</v>
           </cell>
         </row>
         <row r="37">
           <cell r="G37" t="str">
-            <v>Office Supplies</v>
+            <v>Computer</v>
           </cell>
         </row>
         <row r="38">
           <cell r="G38" t="str">
-            <v>Cell Phone</v>
+            <v>Networking</v>
           </cell>
         </row>
         <row r="39">
           <cell r="G39" t="str">
-            <v>Consultant</v>
+            <v>Parsons</v>
           </cell>
         </row>
         <row r="40">
           <cell r="G40" t="str">
-            <v>Google Cloud Service</v>
+            <v>NY Times</v>
           </cell>
         </row>
         <row r="41">
           <cell r="G41" t="str">
-            <v>Go Daddy</v>
+            <v>Books and Subscriptions</v>
           </cell>
         </row>
         <row r="42">
           <cell r="G42" t="str">
-            <v>Computer</v>
+            <v>Business Travel</v>
           </cell>
         </row>
         <row r="43">
           <cell r="G43" t="str">
-            <v>Networking</v>
+            <v>Medical</v>
           </cell>
         </row>
         <row r="44">
           <cell r="G44" t="str">
-            <v>Parsons</v>
+            <v>Over the counter (OTC)</v>
           </cell>
         </row>
         <row r="45">
           <cell r="G45" t="str">
-            <v>NY Times</v>
+            <v>United Health Insurance</v>
           </cell>
         </row>
         <row r="46">
           <cell r="G46" t="str">
-            <v>Books and Subscriptions</v>
+            <v>Long Term Health Care</v>
           </cell>
         </row>
         <row r="47">
           <cell r="G47" t="str">
-            <v>Business Travel</v>
+            <v>Donations</v>
           </cell>
         </row>
         <row r="48">
           <cell r="G48" t="str">
-            <v>Medical</v>
+            <v>Gift</v>
           </cell>
         </row>
         <row r="49">
           <cell r="G49" t="str">
-            <v>Over the counter (OTC)</v>
+            <v>New York State Tax</v>
           </cell>
         </row>
         <row r="50">
           <cell r="G50" t="str">
-            <v>United Health Insurance</v>
+            <v>New Jersey State Tax</v>
           </cell>
         </row>
         <row r="51">
           <cell r="G51" t="str">
-            <v>Long Term Health Care</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="G52" t="str">
-            <v>Donations</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="G53" t="str">
-            <v>Gift</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="G54" t="str">
-            <v>New York State Tax</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="G55" t="str">
-            <v>New Jersey State Tax</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="G56" t="str">
             <v>Federal Taxes</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1377,9 +1399,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="238" zoomScaleNormal="238" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1455,7 +1477,7 @@
         <v>28</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1507,24 +1529,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F94"/>
+  <sheetPr codeName="Sheet1" filterMode="1"/>
+  <dimension ref="A1:F88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A94" sqref="A94"/>
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="3"/>
-    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="17"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" style="7"/>
-    <col min="4" max="4" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="16" t="s">
         <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1537,8 +1559,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="17">
         <v>41646</v>
       </c>
       <c r="B2" t="s">
@@ -1548,8 +1570,8 @@
         <v>11.49</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="17">
         <v>41647</v>
       </c>
       <c r="B3" t="s">
@@ -1559,8 +1581,8 @@
         <v>8.2899999999999991</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="17">
         <v>41647</v>
       </c>
       <c r="B4" t="s">
@@ -1573,8 +1595,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="17">
         <v>41654</v>
       </c>
       <c r="B5" t="s">
@@ -1587,8 +1609,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="17">
         <v>41657</v>
       </c>
       <c r="B6" t="s">
@@ -1597,9 +1619,12 @@
       <c r="C6" s="7">
         <v>2790</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
+      <c r="D6" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="17">
         <v>41658</v>
       </c>
       <c r="B7" t="s">
@@ -1612,8 +1637,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="17">
         <v>41660</v>
       </c>
       <c r="B8" t="s">
@@ -1626,8 +1651,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="17">
         <v>41663</v>
       </c>
       <c r="B9" t="s">
@@ -1640,8 +1665,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="17">
         <v>41664</v>
       </c>
       <c r="B10" t="s">
@@ -1654,8 +1679,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="17">
         <v>41665</v>
       </c>
       <c r="B11" t="s">
@@ -1668,8 +1693,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="17">
         <v>41667</v>
       </c>
       <c r="B12" t="s">
@@ -1678,9 +1703,12 @@
       <c r="C12" s="7">
         <v>150</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
+      <c r="D12" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="17">
         <v>41670</v>
       </c>
       <c r="B13" t="s">
@@ -1693,8 +1721,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="17">
         <v>41675</v>
       </c>
       <c r="B14" t="s">
@@ -1707,8 +1735,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="17">
         <v>41677</v>
       </c>
       <c r="B15" t="s">
@@ -1721,8 +1749,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="17">
         <v>41677</v>
       </c>
       <c r="B16" t="s">
@@ -1735,8 +1763,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="17">
         <v>41679</v>
       </c>
       <c r="B17" t="s">
@@ -1749,8 +1777,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="17">
         <v>41679</v>
       </c>
       <c r="B18" t="s">
@@ -1763,8 +1791,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="17">
         <v>41679</v>
       </c>
       <c r="B19" t="s">
@@ -1777,8 +1805,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="17">
         <v>41680</v>
       </c>
       <c r="B20" t="s">
@@ -1791,8 +1819,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="17">
         <v>41680</v>
       </c>
       <c r="B21" t="s">
@@ -1805,8 +1833,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="17">
         <v>41680</v>
       </c>
       <c r="B22" t="s">
@@ -1819,8 +1847,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="17">
         <v>41681</v>
       </c>
       <c r="B23" t="s">
@@ -1833,8 +1861,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="17">
         <v>41681</v>
       </c>
       <c r="B24" t="s">
@@ -1847,8 +1875,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="17">
         <v>41681</v>
       </c>
       <c r="B25" s="12" t="s">
@@ -1861,8 +1889,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="17">
         <v>41681</v>
       </c>
       <c r="B26" s="12" t="s">
@@ -1875,8 +1903,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="17">
         <v>41682</v>
       </c>
       <c r="B27" t="s">
@@ -1889,8 +1917,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="17">
         <v>41683</v>
       </c>
       <c r="B28" t="s">
@@ -1903,8 +1931,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="17">
         <v>41691</v>
       </c>
       <c r="B29" t="s">
@@ -1917,8 +1945,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="3">
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="17">
         <v>41691</v>
       </c>
       <c r="B30" t="s">
@@ -1931,8 +1959,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="3">
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="17">
         <v>41691</v>
       </c>
       <c r="B31" t="s">
@@ -1945,8 +1973,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="3">
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="17">
         <v>41691</v>
       </c>
       <c r="B32" t="s">
@@ -1959,8 +1987,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="3">
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="17">
         <v>41692</v>
       </c>
       <c r="B33" t="s">
@@ -1970,8 +1998,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="3">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="17">
         <v>41695</v>
       </c>
       <c r="B34" t="s">
@@ -1981,8 +2009,8 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="3">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="17">
         <v>41698</v>
       </c>
       <c r="B35" t="s">
@@ -1995,8 +2023,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="3">
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="17">
         <v>41700</v>
       </c>
       <c r="B36" t="s">
@@ -2009,8 +2037,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="3">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="17">
         <v>41700</v>
       </c>
       <c r="B37" t="s">
@@ -2023,8 +2051,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="3">
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="17">
         <v>41701</v>
       </c>
       <c r="B38" s="12" t="s">
@@ -2037,8 +2065,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="3">
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="17">
         <v>41701</v>
       </c>
       <c r="B39" s="12" t="s">
@@ -2051,8 +2079,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40" s="3">
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="17">
         <v>41702</v>
       </c>
       <c r="B40" t="s">
@@ -2065,8 +2093,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="3">
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="17">
         <v>41702</v>
       </c>
       <c r="B41" t="s">
@@ -2079,8 +2107,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A42" s="3">
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="17">
         <v>41702</v>
       </c>
       <c r="B42" t="s">
@@ -2093,8 +2121,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A43" s="3">
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="17">
         <v>41703</v>
       </c>
       <c r="B43" t="s">
@@ -2104,11 +2132,11 @@
         <v>1000</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="17">
         <v>41706</v>
       </c>
       <c r="B44" t="s">
@@ -2121,8 +2149,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="3">
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="17">
         <v>41706</v>
       </c>
       <c r="B45" s="12" t="s">
@@ -2135,8 +2163,8 @@
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="3">
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="17">
         <v>41707</v>
       </c>
       <c r="B46" t="s">
@@ -2149,8 +2177,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="3">
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="17">
         <v>41708</v>
       </c>
       <c r="B47" t="s">
@@ -2163,8 +2191,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="3">
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="17">
         <v>41710</v>
       </c>
       <c r="B48" t="s">
@@ -2177,8 +2205,8 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A49" s="3">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="17">
         <v>41710</v>
       </c>
       <c r="B49" t="s">
@@ -2191,8 +2219,8 @@
         <v>85</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A50" s="3">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="17">
         <v>41714</v>
       </c>
       <c r="B50" s="12" t="s">
@@ -2205,8 +2233,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A51" s="3">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="17">
         <v>41719</v>
       </c>
       <c r="B51" t="s">
@@ -2219,8 +2247,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A52" s="3">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="17">
         <v>41719</v>
       </c>
       <c r="B52" s="12" t="s">
@@ -2236,8 +2264,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A53" s="13">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="15">
         <v>41721</v>
       </c>
       <c r="B53" s="12" t="s">
@@ -2254,22 +2282,22 @@
         <v>84</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A54" s="3">
-        <v>41726</v>
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="17">
+        <v>41676</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="C54" s="7">
-        <v>346.22</v>
+        <v>150</v>
       </c>
       <c r="D54" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A55" s="3">
+      <c r="A55" s="17">
         <v>41729</v>
       </c>
       <c r="B55" s="12" t="s">
@@ -2282,36 +2310,36 @@
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A56" s="3">
-        <v>41730</v>
-      </c>
-      <c r="B56" s="12" t="s">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="17">
+        <v>41697</v>
+      </c>
+      <c r="B56" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56" s="7">
+        <v>500</v>
+      </c>
+      <c r="D56" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="17">
+        <v>41722</v>
+      </c>
+      <c r="B57" t="s">
         <v>57</v>
       </c>
-      <c r="C56" s="7">
-        <v>153.13</v>
-      </c>
-      <c r="D56" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A57" s="3">
-        <v>41730</v>
-      </c>
-      <c r="B57" s="12" t="s">
-        <v>57</v>
-      </c>
       <c r="C57" s="7">
-        <v>139.5</v>
+        <v>1.2</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A58" s="3">
+      <c r="A58" s="17">
         <v>41731</v>
       </c>
       <c r="B58" s="12" t="s">
@@ -2320,526 +2348,433 @@
       <c r="C58" s="7">
         <v>1000</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="12" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A59" s="3">
-        <v>41731</v>
+      <c r="A59" s="17">
+        <v>41739</v>
       </c>
       <c r="B59" s="12" t="s">
         <v>57</v>
       </c>
       <c r="C59" s="7">
-        <v>1000</v>
+        <v>562.25</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A60" s="3">
-        <v>41754</v>
+      <c r="A60" s="15">
+        <v>41739</v>
       </c>
       <c r="B60" s="12" t="s">
         <v>57</v>
       </c>
       <c r="C60" s="7">
-        <v>35</v>
-      </c>
-      <c r="D60" t="s">
-        <v>92</v>
+        <v>380.67</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A61" s="3">
-        <v>41754</v>
+      <c r="A61" s="17">
+        <v>41739</v>
       </c>
       <c r="B61" s="12" t="s">
         <v>57</v>
       </c>
       <c r="C61" s="7">
-        <v>35</v>
-      </c>
-      <c r="D61" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A62" s="3">
-        <v>41754</v>
-      </c>
-      <c r="B62" s="12" t="s">
+        <v>43.4</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="17">
+        <v>41646</v>
+      </c>
+      <c r="B62" s="14" t="s">
         <v>57</v>
       </c>
       <c r="C62" s="7">
-        <v>35</v>
+        <v>1000</v>
       </c>
       <c r="D62" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A63" s="3">
-        <v>41757</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="17">
+        <v>41677</v>
       </c>
       <c r="B63" t="s">
         <v>57</v>
       </c>
       <c r="C63" s="7">
-        <v>90</v>
+        <v>154.44999999999999</v>
       </c>
       <c r="D63" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A64" s="3">
-        <v>41756</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="17">
+        <v>41711</v>
       </c>
       <c r="B64" t="s">
         <v>57</v>
       </c>
       <c r="C64" s="7">
+        <v>169.46</v>
+      </c>
+      <c r="D64" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="17">
+        <v>41725</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C65" s="7">
         <v>100</v>
       </c>
-      <c r="D64" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A65" s="3">
-        <v>41758</v>
-      </c>
-      <c r="B65" t="s">
-        <v>57</v>
-      </c>
-      <c r="C65" s="7">
-        <v>300</v>
-      </c>
       <c r="D65" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A66" s="3">
-        <v>41758</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="17">
+        <v>41725</v>
       </c>
       <c r="B66" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="C66" s="7">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="D66" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" s="3">
-        <v>41758</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="17">
+        <v>41726</v>
       </c>
       <c r="B67" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="C67" s="7">
-        <v>999</v>
+        <v>346.22</v>
       </c>
       <c r="D67" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A68" s="3">
-        <v>41758</v>
-      </c>
-      <c r="B68" t="s">
-        <v>57</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="17">
+        <v>41690</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>100</v>
       </c>
       <c r="C68" s="7">
-        <v>2454</v>
-      </c>
-      <c r="D68" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A69" s="3">
-        <v>41758</v>
-      </c>
-      <c r="B69" t="s">
-        <v>57</v>
+        <v>2349.54</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="17">
+        <v>41726</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>114</v>
       </c>
       <c r="C69" s="7">
-        <v>333</v>
+        <v>500</v>
       </c>
       <c r="D69" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A70" s="3">
-        <v>41757</v>
-      </c>
-      <c r="B70" t="s">
-        <v>57</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A70" s="17">
+        <v>41730</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>116</v>
       </c>
       <c r="C70" s="7">
-        <v>1200</v>
+        <v>153.13</v>
       </c>
       <c r="D70" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A71" s="3">
-        <v>41757</v>
-      </c>
-      <c r="B71" t="s">
-        <v>57</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="17">
+        <v>41722</v>
       </c>
       <c r="C71" s="7">
-        <v>1200</v>
-      </c>
-      <c r="D71" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A72" s="3">
-        <v>41757</v>
-      </c>
-      <c r="B72" t="s">
-        <v>57</v>
+        <v>550</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="17">
+        <v>41722</v>
       </c>
       <c r="C72" s="7">
-        <v>1200</v>
-      </c>
-      <c r="D72" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A73" s="3">
-        <v>41757</v>
-      </c>
-      <c r="B73" t="s">
-        <v>57</v>
+        <v>1302</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A73" s="17">
+        <v>41730</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>115</v>
       </c>
       <c r="C73" s="7">
-        <v>1200</v>
-      </c>
-      <c r="D73" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A74" s="3">
-        <v>41757</v>
+        <v>139.5</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="17">
+        <v>41759</v>
       </c>
       <c r="B74" t="s">
         <v>57</v>
       </c>
       <c r="C74" s="7">
-        <v>1200</v>
+        <v>137.55000000000001</v>
       </c>
       <c r="D74" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A75" s="3">
-        <v>41757</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A75" s="17">
+        <v>41758</v>
       </c>
       <c r="B75" t="s">
         <v>57</v>
       </c>
       <c r="C75" s="7">
-        <v>1200</v>
+        <v>15</v>
       </c>
       <c r="D75" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A76" s="3">
-        <v>41761</v>
-      </c>
-      <c r="B76" t="s">
-        <v>57</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A76" s="17">
+        <v>41744</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>111</v>
       </c>
       <c r="C76" s="7">
         <v>100</v>
       </c>
-      <c r="D76" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A77" s="3">
-        <v>41760</v>
-      </c>
-      <c r="B77" t="s">
-        <v>57</v>
+      <c r="D76" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A77" s="17">
+        <v>41744</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>111</v>
       </c>
       <c r="C77" s="7">
-        <v>300</v>
-      </c>
-      <c r="D77" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A78" s="3">
-        <v>41759</v>
+        <v>100</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="17">
+        <v>41676</v>
       </c>
       <c r="B78" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="C78" s="7">
+        <v>50</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="17">
+        <v>41696</v>
+      </c>
+      <c r="B79" t="s">
+        <v>111</v>
+      </c>
+      <c r="C79" s="7">
+        <v>100</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="17">
+        <v>41690</v>
+      </c>
+      <c r="B80" t="s">
+        <v>116</v>
+      </c>
+      <c r="C80" s="7">
         <v>45</v>
       </c>
-      <c r="D78" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A79" s="3">
-        <v>41759</v>
-      </c>
-      <c r="B79" t="s">
-        <v>57</v>
-      </c>
-      <c r="C79" s="7">
-        <v>90</v>
-      </c>
-      <c r="D79" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A80" s="3">
-        <v>41760</v>
-      </c>
-      <c r="B80" t="s">
-        <v>57</v>
-      </c>
-      <c r="C80" s="7">
-        <v>95</v>
-      </c>
-      <c r="D80" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A81" s="3">
-        <v>41760</v>
+      <c r="D80" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="17">
+        <v>41690</v>
       </c>
       <c r="B81" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="C81" s="7">
-        <v>95</v>
-      </c>
-      <c r="D81" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A82" s="3">
-        <v>41761</v>
+        <v>75</v>
+      </c>
+      <c r="D81" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="17">
+        <v>41675</v>
       </c>
       <c r="B82" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="C82" s="7">
-        <v>200</v>
-      </c>
-      <c r="D82" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A83" s="3">
-        <v>41760</v>
+        <v>45</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="17">
+        <v>41655</v>
       </c>
       <c r="B83" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="C83" s="7">
-        <v>300</v>
-      </c>
-      <c r="D83" t="s">
+        <v>35</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="17">
+        <v>41654</v>
+      </c>
+      <c r="B84" t="s">
+        <v>111</v>
+      </c>
+      <c r="C84" s="7">
+        <v>45</v>
+      </c>
+      <c r="D84" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="17">
+        <v>41654</v>
+      </c>
+      <c r="B85" t="s">
+        <v>114</v>
+      </c>
+      <c r="C85" s="7">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A84" s="3">
-        <v>41761</v>
-      </c>
-      <c r="B84" t="s">
-        <v>57</v>
-      </c>
-      <c r="C84" s="7">
-        <v>120</v>
-      </c>
-      <c r="D84" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A85" s="3">
-        <v>41759</v>
-      </c>
-      <c r="B85" t="s">
-        <v>57</v>
-      </c>
-      <c r="C85" s="7">
-        <v>35</v>
-      </c>
-      <c r="D85" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A86" s="3">
-        <v>41759</v>
-      </c>
-      <c r="B86" t="s">
-        <v>57</v>
+      <c r="D85" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="17">
+        <v>41650</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>114</v>
       </c>
       <c r="C86" s="7">
-        <v>35</v>
-      </c>
-      <c r="D86" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A87" s="3">
-        <v>41656</v>
-      </c>
-      <c r="B87" t="s">
-        <v>57</v>
+        <v>82</v>
+      </c>
+      <c r="D86" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="17">
+        <v>41641</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="C87" s="7">
-        <v>72.8</v>
-      </c>
-      <c r="D87" t="s">
-        <v>107</v>
+        <v>50</v>
+      </c>
+      <c r="D87" s="12" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A88" s="3">
-        <v>41656</v>
-      </c>
-      <c r="B88" t="s">
-        <v>57</v>
-      </c>
-      <c r="C88" s="7">
-        <v>72.8</v>
-      </c>
-      <c r="D88" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A89" s="3">
-        <v>41656</v>
-      </c>
-      <c r="B89" t="s">
-        <v>57</v>
-      </c>
-      <c r="C89" s="7">
-        <v>72.8</v>
-      </c>
-      <c r="D89" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A90" s="3">
-        <v>41656</v>
-      </c>
-      <c r="B90" t="s">
-        <v>57</v>
-      </c>
-      <c r="C90" s="7">
-        <v>72.8</v>
-      </c>
-      <c r="D90" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A91" s="3">
-        <v>41656</v>
-      </c>
-      <c r="B91" t="s">
-        <v>57</v>
-      </c>
-      <c r="C91" s="7">
-        <v>72.8</v>
-      </c>
-      <c r="D91" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A92" s="3">
-        <v>41656</v>
-      </c>
-      <c r="B92" t="s">
-        <v>57</v>
-      </c>
-      <c r="C92" s="7">
-        <v>72.8</v>
-      </c>
-      <c r="D92" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A93" s="3">
-        <v>41656</v>
-      </c>
-      <c r="B93" t="s">
-        <v>57</v>
-      </c>
-      <c r="C93" s="7">
-        <v>72.8</v>
-      </c>
-      <c r="D93" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A94" s="3">
-        <v>41656</v>
-      </c>
-      <c r="B94" t="s">
-        <v>57</v>
-      </c>
-      <c r="C94" s="7">
-        <v>72.8</v>
-      </c>
-      <c r="D94" t="s">
-        <v>88</v>
+      <c r="A88" s="15" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D86" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:D87" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <filterColumn colId="0">
+      <filters>
+        <dateGroupItem year="2018" month="4" dateTimeGrouping="month"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43:B46 B55 B1:B41 B63:B1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43:B46 B1:B41 B54:B1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>expense</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B47:B54 B42 B56:B59 B62" xr:uid="{05177A31-2436-494B-9BEE-6D517E3064DB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B42 B47:B53" xr:uid="{05177A31-2436-494B-9BEE-6D517E3064DB}">
       <formula1>expenses</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B60:B61" xr:uid="{9B6D1881-8074-BF46-88DE-694A6D567B19}">
-      <formula1>income</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2884,16 +2819,16 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B1:K22"/>
+  <dimension ref="B1:K29"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="6" max="6" width="34" customWidth="1"/>
+    <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2984,7 +2919,7 @@
       </c>
       <c r="G5" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2349.54</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.15">
@@ -3053,7 +2988,7 @@
         <v>30</v>
       </c>
       <c r="G12" s="8">
-        <f t="shared" ref="G12:G21" si="2">SUMIFS(ExpensesAmtLog, ExpensesCatLog, F12, ExpensesDateLog, "&gt;="&amp;TEXT($J$2, "mm-dd-yyyy"), ExpensesDateLog, "&lt;="&amp;TEXT($K$2, "mm-dd-yyyy"))</f>
+        <f>SUMIFS(ExpensesAmtLog, ExpensesCatLog, F12, ExpensesDateLog, "&gt;="&amp;TEXT($J$2, "mm-dd-yyyy"), ExpensesDateLog, "&lt;="&amp;TEXT($K$2, "mm-dd-yyyy"))</f>
         <v>250</v>
       </c>
     </row>
@@ -3062,7 +2997,7 @@
         <v>41</v>
       </c>
       <c r="G13" s="8">
-        <f t="shared" si="2"/>
+        <f>SUMIFS(ExpensesAmtLog, ExpensesCatLog, F13, ExpensesDateLog, "&gt;="&amp;TEXT($J$2, "mm-dd-yyyy"), ExpensesDateLog, "&lt;="&amp;TEXT($K$2, "mm-dd-yyyy"))</f>
         <v>650</v>
       </c>
     </row>
@@ -3071,7 +3006,7 @@
         <v>56</v>
       </c>
       <c r="G14" s="8">
-        <f t="shared" si="2"/>
+        <f>SUMIFS(ExpensesAmtLog, ExpensesCatLog, F14, ExpensesDateLog, "&gt;="&amp;TEXT($J$2, "mm-dd-yyyy"), ExpensesDateLog, "&lt;="&amp;TEXT($K$2, "mm-dd-yyyy"))</f>
         <v>3000</v>
       </c>
     </row>
@@ -3080,67 +3015,84 @@
         <v>58</v>
       </c>
       <c r="G15" s="8">
-        <f t="shared" si="2"/>
-        <v>11272.649999999994</v>
+        <f>SUMIFS(ExpensesAmtLog, ExpensesCatLog, F15, ExpensesDateLog, "&gt;="&amp;TEXT($J$2, "mm-dd-yyyy"), ExpensesDateLog, "&lt;="&amp;TEXT($K$2, "mm-dd-yyyy"))</f>
+        <v>11669.140000000001</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="G16" s="8">
+        <f>SUMIFS(ExpensesAmtLog, ExpensesCatLog, F16, ExpensesDateLog, "&gt;="&amp;TEXT($J$2, "mm-dd-yyyy"), ExpensesDateLog, "&lt;="&amp;TEXT($K$2, "mm-dd-yyyy"))</f>
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F17" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="G17" s="8">
+        <f>SUMIFS(ExpensesAmtLog, ExpensesCatLog, F17, ExpensesDateLog, "&gt;="&amp;TEXT($J$2, "mm-dd-yyyy"), ExpensesDateLog, "&lt;="&amp;TEXT($K$2, "mm-dd-yyyy"))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F18" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="G18" s="8">
+        <f>SUMIFS(ExpensesAmtLog, ExpensesCatLog, F18, ExpensesDateLog, "&gt;="&amp;TEXT($J$2, "mm-dd-yyyy"), ExpensesDateLog, "&lt;="&amp;TEXT($K$2, "mm-dd-yyyy"))</f>
         <v>100</v>
       </c>
-      <c r="G16" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F17" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="G17" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F18" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="G18" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="19" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F19" s="14" t="s">
-        <v>103</v>
+      <c r="F19" s="18" t="s">
+        <v>111</v>
       </c>
       <c r="G19" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>SUMIFS(ExpensesAmtLog, ExpensesCatLog, F19, ExpensesDateLog, "&gt;="&amp;TEXT($J$2, "mm-dd-yyyy"), ExpensesDateLog, "&lt;="&amp;TEXT($K$2, "mm-dd-yyyy"))</f>
+        <v>491.22</v>
       </c>
     </row>
     <row r="20" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F20" s="14" t="s">
-        <v>104</v>
+      <c r="F20" s="18" t="s">
+        <v>112</v>
       </c>
       <c r="G20" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>SUMIFS(ExpensesAmtLog, ExpensesCatLog, F20, ExpensesDateLog, "&gt;="&amp;TEXT($J$2, "mm-dd-yyyy"), ExpensesDateLog, "&lt;="&amp;TEXT($K$2, "mm-dd-yyyy"))</f>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F21" s="14" t="s">
-        <v>105</v>
+      <c r="F21" s="18" t="s">
+        <v>113</v>
       </c>
       <c r="G21" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F22" s="15" t="s">
-        <v>106</v>
+        <f>SUMIFS(ExpensesAmtLog, ExpensesCatLog, F21, ExpensesDateLog, "&gt;="&amp;TEXT($J$2, "mm-dd-yyyy"), ExpensesDateLog, "&lt;="&amp;TEXT($K$2, "mm-dd-yyyy"))</f>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="27" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F27" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F28" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="G28" s="8">
+        <f>SUMIFS(ExpensesAmtLog, expenseLogNotes, F28, ExpensesDateLog, "&gt;="&amp;TEXT($J$2, "mm-dd-yyyy"), ExpensesDateLog, "&lt;="&amp;TEXT($K$2, "mm-dd-yyyy"))</f>
+        <v>609</v>
+      </c>
+    </row>
+    <row r="29" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F29" s="12" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/LM Sheet (by Juan Alduey).xlsx
+++ b/LM Sheet (by Juan Alduey).xlsx
@@ -5,31 +5,32 @@
   <workbookPr date1904="1" showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ceciliametheny/Desktop/Cecilia Numbers with Macros/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ceciliametheny/repos/ceciliametheny/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{40905560-754C-4C43-A350-2A53ABAFCAC4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{039ABCF6-963A-634C-8D98-74DF53A7212E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8500" yWindow="1000" windowWidth="27580" windowHeight="14000" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="260" yWindow="1100" windowWidth="27580" windowHeight="14000" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Income" sheetId="1" r:id="rId1"/>
     <sheet name="Expense" sheetId="2" r:id="rId2"/>
     <sheet name="Categories" sheetId="3" r:id="rId3"/>
+    <sheet name="Debit Cards" sheetId="4" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Expense!$A$1:$D$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Expense!$A$1:$D$116</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Income!$A$1:$D$5</definedName>
-    <definedName name="expense">Categories!$F$2:$F$21</definedName>
+    <definedName name="expense">OFFSET(Categories!$F$1,1,0,COUNTA(Categories!$F:$F)-1,1)</definedName>
     <definedName name="expenseLogNotes">Expense!$D:$D</definedName>
     <definedName name="expenses">'[1]Categories and Stats'!$G$2:$G$51</definedName>
     <definedName name="ExpensesAmtLog">Expense!$C:$C</definedName>
     <definedName name="ExpensesCatLog">Expense!$B:$B</definedName>
     <definedName name="ExpensesDateLog">Expense!$A:$A</definedName>
-    <definedName name="income">Categories!$B$2:$B$6</definedName>
+    <definedName name="income">OFFSET(Categories!$B$1, 1, 0, COUNTA(Categories!$B:$B)-1,1)</definedName>
     <definedName name="IncomeAmtLog">Income!$C:$C</definedName>
     <definedName name="IncomeCatLog">Income!$B:$B</definedName>
     <definedName name="IncomeDateLog">Income!$A:$A</definedName>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="160">
   <si>
     <t>for Jewlery repair</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -83,10 +84,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Clothes</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Petty Cash</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -150,10 +147,6 @@
   </si>
   <si>
     <t>Storage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Clothes</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -477,22 +470,154 @@
     <t>Amount</t>
   </si>
   <si>
-    <t>Consulting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
+    <t>for Travel - FVB - 1380 ?</t>
+  </si>
+  <si>
+    <t>Bed Quilt FVB - 1380</t>
+  </si>
+  <si>
+    <t>Nightgowns - FVB - 1380</t>
+  </si>
+  <si>
+    <t>Truck Repairs - Clarks</t>
+  </si>
+  <si>
+    <t>Virginia Potter/Thank you dinner - FVB 1380</t>
+  </si>
+  <si>
+    <t>Print for Nursing Home Room</t>
+  </si>
+  <si>
+    <t>Truck Repairs - Chevy Dealer</t>
+  </si>
+  <si>
+    <t>Food Out - Denise Hawkins - FVB -1380 ?</t>
+  </si>
+  <si>
+    <t>Cash - Tip</t>
+  </si>
+  <si>
+    <t>Food Out - Lucille Metheny - FVB - 1380 ?</t>
+  </si>
+  <si>
+    <t>Food Out - Cash</t>
+  </si>
+  <si>
+    <t>Cleaning Supplies/Sundries - FVB - 1380  (Dollar Store)</t>
+  </si>
+  <si>
+    <t>Sparks -FVB - Check</t>
+  </si>
+  <si>
+    <t>6/?</t>
+  </si>
+  <si>
+    <t>Room Spray/Walmart</t>
+  </si>
+  <si>
+    <t>First Premier Bank June payment(KY#17)</t>
+  </si>
+  <si>
+    <t>Clarks - Truck Repair - FVB MC(KY#17)</t>
+  </si>
+  <si>
+    <t>Cash (Part of Walmart 43.15)(KY#17)</t>
+  </si>
+  <si>
+    <t>Advantage Car Rental - FVB MC(KY#17)</t>
+  </si>
+  <si>
+    <t>Cash - Food Out(KY#17)</t>
+  </si>
+  <si>
+    <t>Gas - FVB MC1380 (KY#17)</t>
+  </si>
+  <si>
+    <t>Number</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fifth Third Bank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fifth Third Bank Access 360 (MC)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fredonia Valley Bank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fredonia Valley Bank (MC)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>LM Credit Cards</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Capitol One Quicksilver</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Discover It</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>First Premier Platinum (MC)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Credit One Bank (Visa)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>LM Debit Cards</t>
+  </si>
+  <si>
+    <t>LM Checking Accounts</t>
+  </si>
+  <si>
+    <t>LM Credit Cards</t>
+  </si>
+  <si>
+    <t>Flowers and Plants</t>
+  </si>
+  <si>
+    <t>Mailing and Shipping</t>
+  </si>
+  <si>
+    <t>CM Travel Trips KY/RT</t>
+  </si>
+  <si>
+    <t>Sundries</t>
+  </si>
+  <si>
+    <t>Truck Maintenance</t>
+  </si>
+  <si>
+    <t>Clothes and Accessories</t>
+  </si>
+  <si>
+    <t>Room Furnishings</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="166" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="167" formatCode="mmmm\-yy"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -526,6 +651,11 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -553,7 +683,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -600,11 +730,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -626,6 +765,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -815,8 +966,8 @@
       <definedName name="ClearFilters.ClearFilters"/>
     </definedNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2">
         <row r="2">
           <cell r="G2" t="str">
@@ -1069,8 +1220,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1401,7 +1552,7 @@
   <sheetViews>
     <sheetView zoomScale="238" zoomScaleNormal="238" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1412,16 +1563,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -1429,13 +1580,13 @@
         <v>41689</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C2" s="7">
         <v>94595.63</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -1443,13 +1594,13 @@
         <v>41708</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C3" s="7">
         <v>15.98</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -1457,13 +1608,13 @@
         <v>41647</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C4" s="7">
         <v>8.2899999999999991</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -1471,13 +1622,13 @@
         <v>41734</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C5" s="7">
         <v>28</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1529,12 +1680,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Sheet1" filterMode="1"/>
-  <dimension ref="A1:F88"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:F115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A88" sqref="A88"/>
+    <sheetView zoomScale="173" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1547,125 +1698,125 @@
   <sheetData>
     <row r="1" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="17">
         <v>41646</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>158</v>
       </c>
       <c r="C2" s="7">
         <v>11.49</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="17">
         <v>41647</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C3" s="7">
         <v>8.2899999999999991</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="17">
         <v>41647</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C4" s="7">
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="17">
         <v>41654</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C5" s="7">
         <v>202.23</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="17">
         <v>41657</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C6" s="7">
         <v>2790</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="17">
         <v>41658</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C7" s="7">
         <v>8.7100000000000009</v>
       </c>
       <c r="D7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="17">
         <v>41660</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C8" s="7">
         <v>61.61</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="17">
         <v>41663</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C9" s="7">
         <v>400</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="17">
         <v>41664</v>
       </c>
@@ -1676,15 +1827,15 @@
         <v>28.06</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="17">
         <v>41665</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C11" s="7">
         <v>152.41999999999999</v>
@@ -1693,54 +1844,54 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="17">
         <v>41667</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="7">
         <v>150</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="17">
         <v>41670</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C13" s="7">
         <v>1000</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="17">
         <v>41675</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C14" s="7">
         <v>1000</v>
       </c>
       <c r="D14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="17">
         <v>41677</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C15" s="7">
         <v>19.899999999999999</v>
@@ -1749,26 +1900,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="17">
         <v>41677</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C16" s="7">
         <v>93.51</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="17">
         <v>41679</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C17" s="7">
         <v>18.5</v>
@@ -1777,26 +1928,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="17">
         <v>41679</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C18" s="7">
         <v>19.23</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="17">
         <v>41679</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C19" s="7">
         <v>181.82</v>
@@ -1805,49 +1956,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="17">
         <v>41680</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C20" s="7">
         <v>17.29</v>
       </c>
       <c r="D20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="17">
         <v>41680</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C21" s="7">
         <v>19.059999999999999</v>
       </c>
       <c r="D21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="17">
         <v>41680</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C22" s="7">
         <v>77.52</v>
       </c>
       <c r="D22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="17">
         <v>41681</v>
       </c>
@@ -1861,68 +2012,68 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="17">
         <v>41681</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C24" s="7">
         <v>48.38</v>
       </c>
       <c r="D24" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="17">
         <v>41681</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C25" s="7">
         <v>28.38</v>
       </c>
       <c r="D25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="17">
         <v>41681</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C26" s="7">
         <v>28.38</v>
       </c>
       <c r="D26" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="17">
         <v>41682</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C27" s="7">
         <v>61.7</v>
       </c>
       <c r="D27" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="17">
         <v>41683</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C28" s="7">
         <v>96.57</v>
@@ -1931,104 +2082,104 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="17">
         <v>41691</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C29" s="7">
         <v>400</v>
       </c>
       <c r="D29" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="17">
         <v>41691</v>
       </c>
       <c r="B30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C30" s="7">
         <v>2790</v>
       </c>
       <c r="D30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="17">
         <v>41691</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C31" s="7">
         <v>2790</v>
       </c>
       <c r="D31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="17">
         <v>41691</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C32" s="7">
         <v>2790</v>
       </c>
       <c r="D32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="17">
         <v>41692</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C33" s="7">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="17">
         <v>41695</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C34" s="7">
         <v>3000</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="17">
         <v>41698</v>
       </c>
       <c r="B35" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C35" s="7">
         <v>1000</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="17">
         <v>41700</v>
       </c>
       <c r="B36" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C36" s="7">
         <v>77.31</v>
@@ -2037,7 +2188,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="17">
         <v>41700</v>
       </c>
@@ -2048,252 +2199,252 @@
         <v>79.19</v>
       </c>
       <c r="D37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="17">
         <v>41701</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C38" s="7">
         <v>12.36</v>
       </c>
       <c r="D38" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="17">
         <v>41701</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C39" s="7">
         <v>12.96</v>
       </c>
       <c r="D39" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="17">
         <v>41702</v>
       </c>
       <c r="B40" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C40" s="7">
         <v>6.99</v>
       </c>
       <c r="D40" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="17">
         <v>41702</v>
       </c>
       <c r="B41" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C41" s="7">
         <v>6.99</v>
       </c>
       <c r="D41" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="17">
         <v>41702</v>
       </c>
       <c r="B42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C42" s="7">
         <v>102.5</v>
       </c>
       <c r="D42" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="17">
         <v>41703</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C43" s="7">
         <v>1000</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="17">
         <v>41706</v>
       </c>
       <c r="B44" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C44" s="7">
         <v>2252</v>
       </c>
       <c r="D44" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="17">
         <v>41706</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C45" s="7">
         <v>2252</v>
       </c>
       <c r="D45" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="17">
         <v>41707</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C46" s="7">
         <v>28.29</v>
       </c>
       <c r="D46" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="17">
         <v>41708</v>
       </c>
       <c r="B47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C47" s="7">
         <v>15.98</v>
       </c>
       <c r="D47" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="17">
         <v>41710</v>
       </c>
       <c r="B48" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C48" s="7">
         <v>250</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="17">
         <v>41710</v>
       </c>
       <c r="B49" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C49" s="7">
         <v>650</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="17">
         <v>41714</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C50" s="7">
         <v>133.32</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="17">
         <v>41719</v>
       </c>
       <c r="B51" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C51" s="7">
         <v>400</v>
       </c>
       <c r="D51" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="17">
         <v>41719</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C52" s="7">
         <v>39.29</v>
       </c>
       <c r="D52" t="s">
+        <v>80</v>
+      </c>
+      <c r="E52" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="E52" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="15">
         <v>41721</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C53" s="7">
         <v>129.56</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E53" s="12"/>
       <c r="F53" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="17">
         <v>41676</v>
       </c>
       <c r="B54" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C54" s="7">
         <v>150</v>
       </c>
       <c r="D54" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
@@ -2301,41 +2452,41 @@
         <v>41729</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C55" s="7">
         <v>1000</v>
       </c>
       <c r="D55" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="17">
         <v>41697</v>
       </c>
       <c r="B56" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C56" s="7">
         <v>500</v>
       </c>
       <c r="D56" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="17">
         <v>41722</v>
       </c>
       <c r="B57" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C57" s="7">
         <v>1.2</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
@@ -2343,13 +2494,13 @@
         <v>41731</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C58" s="7">
         <v>1000</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
@@ -2357,13 +2508,13 @@
         <v>41739</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C59" s="7">
         <v>562.25</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
@@ -2371,13 +2522,13 @@
         <v>41739</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C60" s="7">
         <v>380.67</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
@@ -2385,125 +2536,125 @@
         <v>41739</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C61" s="7">
         <v>43.4</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" s="17">
         <v>41646</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C62" s="7">
         <v>1000</v>
       </c>
       <c r="D62" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" s="17">
         <v>41677</v>
       </c>
       <c r="B63" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C63" s="7">
         <v>154.44999999999999</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" s="17">
         <v>41711</v>
       </c>
       <c r="B64" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C64" s="7">
         <v>169.46</v>
       </c>
       <c r="D64" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A65" s="17">
         <v>41725</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C65" s="7">
         <v>100</v>
       </c>
       <c r="D65" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A66" s="17">
         <v>41725</v>
       </c>
       <c r="B66" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C66" s="7">
         <v>100</v>
       </c>
       <c r="D66" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A67" s="17">
         <v>41726</v>
       </c>
       <c r="B67" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C67" s="7">
         <v>346.22</v>
       </c>
       <c r="D67" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A68" s="17">
         <v>41690</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C68" s="7">
         <v>2349.54</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A69" s="17">
         <v>41726</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C69" s="7">
         <v>500</v>
       </c>
       <c r="D69" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.15">
@@ -2511,16 +2662,16 @@
         <v>41730</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C70" s="7">
         <v>153.13</v>
       </c>
       <c r="D70" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A71" s="17">
         <v>41722</v>
       </c>
@@ -2528,10 +2679,10 @@
         <v>550</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A72" s="17">
         <v>41722</v>
       </c>
@@ -2539,7 +2690,7 @@
         <v>1302</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.15">
@@ -2547,30 +2698,30 @@
         <v>41730</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C73" s="7">
         <v>139.5</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E73" s="12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A74" s="17">
         <v>41759</v>
       </c>
       <c r="B74" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C74" s="7">
         <v>137.55000000000001</v>
       </c>
       <c r="D74" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.15">
@@ -2578,13 +2729,13 @@
         <v>41758</v>
       </c>
       <c r="B75" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C75" s="7">
         <v>15</v>
       </c>
       <c r="D75" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.15">
@@ -2592,13 +2743,13 @@
         <v>41744</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C76" s="7">
         <v>100</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.15">
@@ -2606,168 +2757,486 @@
         <v>41744</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C77" s="7">
         <v>100</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A78" s="17">
         <v>41676</v>
       </c>
       <c r="B78" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C78" s="7">
         <v>50</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A79" s="17">
         <v>41696</v>
       </c>
       <c r="B79" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C79" s="7">
         <v>100</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A80" s="17">
         <v>41690</v>
       </c>
       <c r="B80" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C80" s="7">
         <v>45</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" s="17">
         <v>41690</v>
       </c>
       <c r="B81" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C81" s="7">
         <v>75</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82" s="17">
         <v>41675</v>
       </c>
       <c r="B82" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C82" s="7">
         <v>45</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" s="17">
         <v>41655</v>
       </c>
       <c r="B83" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C83" s="7">
         <v>35</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" s="17">
         <v>41654</v>
       </c>
       <c r="B84" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C84" s="7">
         <v>45</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" s="17">
         <v>41654</v>
       </c>
       <c r="B85" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C85" s="7">
         <v>82</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" s="17">
         <v>41650</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C86" s="7">
         <v>82</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87" s="17">
         <v>41641</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C87" s="7">
         <v>50</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A88" s="15" t="s">
+      <c r="A88" s="15">
+        <v>41774</v>
+      </c>
+      <c r="C88" s="7">
+        <v>3.15</v>
+      </c>
+      <c r="D88" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A89" s="17">
+        <v>41778</v>
+      </c>
+      <c r="B89" t="s">
+        <v>55</v>
+      </c>
+      <c r="C89" s="7">
+        <v>10.42</v>
+      </c>
+      <c r="D89" s="12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A90" s="17">
+        <v>41778</v>
+      </c>
+      <c r="B90" t="s">
+        <v>55</v>
+      </c>
+      <c r="C90" s="7">
+        <v>25</v>
+      </c>
+      <c r="D90" s="12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A91" s="17">
+        <v>41778</v>
+      </c>
+      <c r="B91" t="s">
+        <v>55</v>
+      </c>
+      <c r="C91" s="7">
+        <v>25</v>
+      </c>
+      <c r="D91" s="12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A92" s="17">
+        <v>41777</v>
+      </c>
+      <c r="C92" s="7">
+        <v>112.36</v>
+      </c>
+      <c r="D92" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A93" s="17">
+        <v>41777</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C93" s="7">
+        <v>20.86</v>
+      </c>
+      <c r="D93" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A94" s="17">
+        <v>41777</v>
+      </c>
+      <c r="C94" s="7">
+        <v>420.86</v>
+      </c>
+      <c r="D94" s="12" t="s">
         <v>121</v>
       </c>
     </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A95" s="17">
+        <v>41776</v>
+      </c>
+      <c r="C95" s="7">
+        <v>38.64</v>
+      </c>
+      <c r="D95" s="12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A96" s="17">
+        <v>41776</v>
+      </c>
+      <c r="C96" s="7">
+        <v>265</v>
+      </c>
+      <c r="D96" s="12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A97" s="15">
+        <v>41776</v>
+      </c>
+      <c r="C97" s="7">
+        <v>515.92999999999995</v>
+      </c>
+      <c r="D97" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A98" s="17">
+        <v>41776</v>
+      </c>
+      <c r="C98" s="7">
+        <v>21.04</v>
+      </c>
+      <c r="D98" s="12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A99" s="17">
+        <v>41776</v>
+      </c>
+      <c r="C99" s="7">
+        <v>5</v>
+      </c>
+      <c r="D99" s="12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A100" s="17">
+        <v>41775</v>
+      </c>
+      <c r="C100" s="7">
+        <v>14.74</v>
+      </c>
+      <c r="D100" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A101" s="17">
+        <v>41775</v>
+      </c>
+      <c r="C101" s="7">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="D101" s="12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A102" s="17">
+        <v>41775</v>
+      </c>
+      <c r="C102" s="7">
+        <v>75.260000000000005</v>
+      </c>
+      <c r="D102" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A103" s="17">
+        <v>41774</v>
+      </c>
+      <c r="C103" s="7">
+        <v>5.44</v>
+      </c>
+      <c r="D103" s="12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A104" s="17">
+        <v>41775</v>
+      </c>
+      <c r="C104" s="7">
+        <v>6.17</v>
+      </c>
+      <c r="D104" s="12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A105" s="17">
+        <v>41774</v>
+      </c>
+      <c r="B105" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C105" s="7">
+        <v>2790</v>
+      </c>
+      <c r="D105" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A106" s="17">
+        <v>41805</v>
+      </c>
+      <c r="B106" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C106" s="7">
+        <v>2790</v>
+      </c>
+      <c r="D106" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A107" s="17">
+        <v>41835</v>
+      </c>
+      <c r="B107" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C107" s="7">
+        <v>2700</v>
+      </c>
+      <c r="D107" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A108" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C108" s="7">
+        <v>100</v>
+      </c>
+      <c r="D108" s="12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A109" s="15">
+        <v>41789</v>
+      </c>
+      <c r="C109" s="7">
+        <v>668.94</v>
+      </c>
+      <c r="D109" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A110" s="17">
+        <v>41777</v>
+      </c>
+      <c r="C110" s="7">
+        <v>420.86</v>
+      </c>
+      <c r="D110" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A111" s="17">
+        <v>41774</v>
+      </c>
+      <c r="C111" s="7">
+        <v>40</v>
+      </c>
+      <c r="D111" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A112" s="17">
+        <v>41778</v>
+      </c>
+      <c r="C112" s="7">
+        <v>601.04999999999995</v>
+      </c>
+      <c r="D112" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A113" s="17">
+        <v>41778</v>
+      </c>
+      <c r="C113" s="7">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="D113" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A114" s="17">
+        <v>41778</v>
+      </c>
+      <c r="C114" s="7">
+        <v>2.75</v>
+      </c>
+      <c r="D114" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A115" s="17">
+        <v>41778</v>
+      </c>
+      <c r="C115" s="7">
+        <v>10.42</v>
+      </c>
+      <c r="D115" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D87" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <filterColumn colId="0">
-      <filters>
-        <dateGroupItem year="2018" month="4" dateTimeGrouping="month"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:D116" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43:B46 B1:B41 B54:B1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -2819,49 +3288,56 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B1:K29"/>
+  <dimension ref="B1:N28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" customWidth="1"/>
     <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.83203125" customWidth="1"/>
+    <col min="13" max="13" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B2" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="8">
         <f>SUMIFS(IncomeAmtLog,IncomeCatLog,B2,IncomeDateLog,"&gt;="&amp;TEXT($J$2,"mm-dd-yyyy"),IncomeDateLog,"&lt;="&amp;TEXT($K$2, "mm-dd-yyyy"))</f>
         <v>0</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" s="8">
         <f>SUMIFS(ExpensesAmtLog, ExpensesCatLog, F2, ExpensesDateLog, "&gt;="&amp;TEXT($J$2, "mm-dd-yyyy"), ExpensesDateLog, "&lt;="&amp;TEXT($K$2, "mm-dd-yyyy"))</f>
@@ -2873,233 +3349,277 @@
       <c r="K2" s="9">
         <v>41727</v>
       </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="M2" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="N2" s="8">
+        <f>SUMIFS(ExpensesAmtLog, expenseLogNotes, M2, ExpensesDateLog, "&gt;="&amp;TEXT($J$2, "mm-dd-yyyy"), ExpensesDateLog, "&lt;="&amp;TEXT($K$2, "mm-dd-yyyy"))</f>
+        <v>609</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="8">
         <f t="shared" ref="C3:C6" si="0">SUMIFS(IncomeAmtLog,IncomeCatLog,B3,IncomeDateLog,"&gt;="&amp;TEXT($J$2,"mm-dd-yyyy"),IncomeDateLog,"&lt;="&amp;TEXT($K$2, "mm-dd-yyyy"))</f>
         <v>0</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G3" s="8">
-        <f t="shared" ref="G3:G11" si="1">SUMIFS(ExpensesAmtLog, ExpensesCatLog, F3, ExpensesDateLog, "&gt;="&amp;TEXT($J$2, "mm-dd-yyyy"), ExpensesDateLog, "&lt;="&amp;TEXT($K$2, "mm-dd-yyyy"))</f>
+        <f t="shared" ref="G3:G9" si="1">SUMIFS(ExpensesAmtLog, ExpensesCatLog, F3, ExpensesDateLog, "&gt;="&amp;TEXT($J$2, "mm-dd-yyyy"), ExpensesDateLog, "&lt;="&amp;TEXT($K$2, "mm-dd-yyyy"))</f>
         <v>150</v>
       </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="M3" s="12"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>25</v>
+      <c r="F4" s="19" t="s">
+        <v>153</v>
       </c>
       <c r="G4" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B5" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C5" s="8">
         <f t="shared" si="0"/>
         <v>94595.63</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>26</v>
+      <c r="F5" s="26" t="s">
+        <v>154</v>
       </c>
       <c r="G5" s="8">
         <f t="shared" si="1"/>
-        <v>2349.54</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B6" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="8">
         <f t="shared" si="0"/>
         <v>24.27</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>27</v>
+      <c r="F6" s="26" t="s">
+        <v>155</v>
       </c>
       <c r="G6" s="8">
         <f t="shared" si="1"/>
-        <v>11.49</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="F7" s="5" t="s">
-        <v>28</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B7" s="28"/>
+      <c r="F7" s="26" t="s">
+        <v>156</v>
       </c>
       <c r="G7" s="8">
         <f t="shared" si="1"/>
-        <v>24.27</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="F8" s="5" t="s">
-        <v>33</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="F8" s="26" t="s">
+        <v>157</v>
       </c>
       <c r="G8" s="8">
         <f t="shared" si="1"/>
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="F9" s="5" t="s">
-        <v>34</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="F9" s="26" t="s">
+        <v>159</v>
       </c>
       <c r="G9" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.15">
       <c r="F10" s="5" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="G10" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G10:G17" si="2">SUMIFS(ExpensesAmtLog, ExpensesCatLog, F10, ExpensesDateLog, "&gt;="&amp;TEXT($J$2, "mm-dd-yyyy"), ExpensesDateLog, "&lt;="&amp;TEXT($K$2, "mm-dd-yyyy"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="F11" s="10" t="s">
-        <v>10</v>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="F11" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="G11" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>2349.54</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="F12" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="G12" s="8">
+        <f t="shared" si="2"/>
+        <v>11.49</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="F13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="8">
+        <f t="shared" si="2"/>
+        <v>24.27</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="F14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="8">
+        <f t="shared" si="2"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="F15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="F16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="8">
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="F12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="8">
-        <f>SUMIFS(ExpensesAmtLog, ExpensesCatLog, F12, ExpensesDateLog, "&gt;="&amp;TEXT($J$2, "mm-dd-yyyy"), ExpensesDateLog, "&lt;="&amp;TEXT($K$2, "mm-dd-yyyy"))</f>
+    <row r="18" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="8">
+        <f t="shared" ref="G18:G27" si="3">SUMIFS(ExpensesAmtLog, ExpensesCatLog, F18, ExpensesDateLog, "&gt;="&amp;TEXT($J$2, "mm-dd-yyyy"), ExpensesDateLog, "&lt;="&amp;TEXT($K$2, "mm-dd-yyyy"))</f>
         <v>250</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="F13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="8">
-        <f>SUMIFS(ExpensesAmtLog, ExpensesCatLog, F13, ExpensesDateLog, "&gt;="&amp;TEXT($J$2, "mm-dd-yyyy"), ExpensesDateLog, "&lt;="&amp;TEXT($K$2, "mm-dd-yyyy"))</f>
+    <row r="19" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="8">
+        <f t="shared" si="3"/>
         <v>650</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="F14" s="11" t="s">
+    <row r="20" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F20" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="8">
+        <f t="shared" si="3"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="21" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F21" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="8">
-        <f>SUMIFS(ExpensesAmtLog, ExpensesCatLog, F14, ExpensesDateLog, "&gt;="&amp;TEXT($J$2, "mm-dd-yyyy"), ExpensesDateLog, "&lt;="&amp;TEXT($K$2, "mm-dd-yyyy"))</f>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="F15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" s="8">
-        <f>SUMIFS(ExpensesAmtLog, ExpensesCatLog, F15, ExpensesDateLog, "&gt;="&amp;TEXT($J$2, "mm-dd-yyyy"), ExpensesDateLog, "&lt;="&amp;TEXT($K$2, "mm-dd-yyyy"))</f>
+      <c r="G21" s="8">
+        <f t="shared" si="3"/>
         <v>11669.140000000001</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="F16" s="18" t="s">
+    <row r="22" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F22" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="G22" s="8">
+        <f t="shared" si="3"/>
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="23" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F23" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="G23" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F24" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="G16" s="8">
-        <f>SUMIFS(ExpensesAmtLog, ExpensesCatLog, F16, ExpensesDateLog, "&gt;="&amp;TEXT($J$2, "mm-dd-yyyy"), ExpensesDateLog, "&lt;="&amp;TEXT($K$2, "mm-dd-yyyy"))</f>
-        <v>1314</v>
-      </c>
-    </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F17" s="18" t="s">
+      <c r="G24" s="8">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F25" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="G17" s="8">
-        <f>SUMIFS(ExpensesAmtLog, ExpensesCatLog, F17, ExpensesDateLog, "&gt;="&amp;TEXT($J$2, "mm-dd-yyyy"), ExpensesDateLog, "&lt;="&amp;TEXT($K$2, "mm-dd-yyyy"))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F18" s="18" t="s">
+      <c r="G25" s="8">
+        <f t="shared" si="3"/>
+        <v>491.22</v>
+      </c>
+    </row>
+    <row r="26" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F26" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="G18" s="8">
-        <f>SUMIFS(ExpensesAmtLog, ExpensesCatLog, F18, ExpensesDateLog, "&gt;="&amp;TEXT($J$2, "mm-dd-yyyy"), ExpensesDateLog, "&lt;="&amp;TEXT($K$2, "mm-dd-yyyy"))</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F19" s="18" t="s">
+      <c r="G26" s="8">
+        <f t="shared" si="3"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="27" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F27" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="G19" s="8">
-        <f>SUMIFS(ExpensesAmtLog, ExpensesCatLog, F19, ExpensesDateLog, "&gt;="&amp;TEXT($J$2, "mm-dd-yyyy"), ExpensesDateLog, "&lt;="&amp;TEXT($K$2, "mm-dd-yyyy"))</f>
-        <v>491.22</v>
-      </c>
-    </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F20" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="G20" s="8">
-        <f>SUMIFS(ExpensesAmtLog, ExpensesCatLog, F20, ExpensesDateLog, "&gt;="&amp;TEXT($J$2, "mm-dd-yyyy"), ExpensesDateLog, "&lt;="&amp;TEXT($K$2, "mm-dd-yyyy"))</f>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F21" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="G21" s="8">
-        <f>SUMIFS(ExpensesAmtLog, ExpensesCatLog, F21, ExpensesDateLog, "&gt;="&amp;TEXT($J$2, "mm-dd-yyyy"), ExpensesDateLog, "&lt;="&amp;TEXT($K$2, "mm-dd-yyyy"))</f>
+      <c r="G27" s="8">
+        <f t="shared" si="3"/>
         <v>220</v>
       </c>
     </row>
-    <row r="27" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F27" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="G27" s="20" t="s">
-        <v>119</v>
-      </c>
-    </row>
     <row r="28" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F28" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="G28" s="8">
-        <f>SUMIFS(ExpensesAmtLog, expenseLogNotes, F28, ExpensesDateLog, "&gt;="&amp;TEXT($J$2, "mm-dd-yyyy"), ExpensesDateLog, "&lt;="&amp;TEXT($K$2, "mm-dd-yyyy"))</f>
-        <v>609</v>
-      </c>
-    </row>
-    <row r="29" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F29" s="12" t="s">
-        <v>120</v>
-      </c>
+      <c r="F28" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
-    <ignoredError sqref="G2:G5 C2:C6 G6:G10 G11:G15" emptyCellReference="1"/>
+    <ignoredError sqref="G2:G3 C2:C6" emptyCellReference="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -3107,4 +3627,162 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56DAF2CB-3358-3A49-BFD0-10BF5A95EAF9}">
+  <dimension ref="A1:N5"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="5">
+        <v>7690185199</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" s="5">
+        <v>4896</v>
+      </c>
+      <c r="F2" s="23">
+        <v>41868</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="I2" s="5">
+        <v>7124</v>
+      </c>
+      <c r="J2" s="24">
+        <v>41729</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="M2" s="5">
+        <v>3141</v>
+      </c>
+      <c r="N2" s="25">
+        <v>42093</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="5">
+        <v>83904974</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1380</v>
+      </c>
+      <c r="F3" s="23">
+        <v>42277</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="I3" s="5">
+        <v>1675</v>
+      </c>
+      <c r="J3" s="24">
+        <v>42674</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="M3" s="5">
+        <v>3561</v>
+      </c>
+      <c r="N3" s="25">
+        <v>42520</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="H4" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="I4" s="5">
+        <v>7836</v>
+      </c>
+      <c r="J4" s="24">
+        <v>41912</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="M4" s="5">
+        <v>7030</v>
+      </c>
+      <c r="N4" s="24">
+        <v>41670</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="L5" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="M5" s="5">
+        <v>4850</v>
+      </c>
+      <c r="N5" s="24">
+        <v>42185</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>